--- a/Table/Table_xls/d定时活动配置表.xlsx
+++ b/Table/Table_xls/d定时活动配置表.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$203</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -27,10 +27,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 序号唯一，前3位对应活动ID</t>
         </r>
       </text>
@@ -40,10 +41,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>user:
+          <t xml:space="preserve">user:
 活动ID序号从200开始往后</t>
         </r>
       </text>
@@ -53,10 +55,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 控制活动在特殊服务器生效，没需求就不要填。
 0=所有服务器都生效</t>
         </r>
@@ -67,6 +70,7 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -84,10 +88,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 开始时间直接复制序号即可</t>
         </r>
       </text>
@@ -97,6 +102,7 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -113,6 +119,7 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -130,10 +137,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 1=提醒
 0=不提醒</t>
         </r>
@@ -144,10 +152,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 提前提醒时间，单位为分</t>
         </r>
       </text>
@@ -157,10 +166,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 0=不是周循环活动
 1至7对应星期1到星期日</t>
         </r>
@@ -171,10 +181,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>user:
+          <t xml:space="preserve">user:
 副本固有的逻辑是活动时间5分钟后弹提示 所以希望提前5分钟就要写提前10分钟</t>
         </r>
       </text>
@@ -184,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>序号</t>
   </si>
@@ -485,13 +496,28 @@
     <t>巨龙</t>
   </si>
   <si>
+    <t>魔化黑龙</t>
+  </si>
+  <si>
     <t>2016-10-17 00:30:00</t>
+  </si>
+  <si>
+    <t>2016-10-17 00:31:00</t>
+  </si>
+  <si>
+    <t>2016-10-17 00:50:00</t>
   </si>
   <si>
     <t>节日-万圣节</t>
   </si>
   <si>
     <t>2016-10-18 00:30:00</t>
+  </si>
+  <si>
+    <t>2016-10-18 00:31:00</t>
+  </si>
+  <si>
+    <t>2016-10-18 00:50:00</t>
   </si>
   <si>
     <t>15:00:00</t>
@@ -531,7 +557,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -568,9 +594,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,8 +621,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,6 +638,53 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,52 +699,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,46 +721,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -717,9 +735,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="43">
@@ -767,6 +788,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="15"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -797,13 +824,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,7 +890,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,19 +908,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,37 +938,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,13 +956,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,55 +980,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,6 +1006,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -996,30 +1037,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,8 +1059,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,18 +1069,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,152 +1108,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1241,18 +1262,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1279,19 +1301,26 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1344,12 +1373,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1675,20 +1699,21 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L196"/>
+  <dimension ref="A1:L203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G51" sqref="G51:G57"/>
+      <selection pane="bottomRight" activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1711,13 +1736,13 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1732,13 +1757,13 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1752,16 +1777,16 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E2">
         <v>200001</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
@@ -1776,7 +1801,7 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1790,16 +1815,16 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E3">
         <v>200002</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
@@ -1814,7 +1839,7 @@
       <c r="K3">
         <v>2</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1828,16 +1853,16 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E4">
         <v>200003</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
@@ -1852,7 +1877,7 @@
       <c r="K4">
         <v>3</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1866,16 +1891,16 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E5">
         <v>200004</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="s">
@@ -1890,7 +1915,7 @@
       <c r="K5">
         <v>4</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1904,16 +1929,16 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E6">
         <v>200005</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
@@ -1928,7 +1953,7 @@
       <c r="K6">
         <v>5</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1942,16 +1967,16 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E7">
         <v>200006</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="s">
@@ -1966,7 +1991,7 @@
       <c r="K7">
         <v>6</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1980,16 +2005,16 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E8">
         <v>200007</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="s">
@@ -2004,7 +2029,7 @@
       <c r="K8">
         <v>7</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2018,16 +2043,16 @@
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="1">
         <v>201001</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -2042,7 +2067,7 @@
       <c r="K9" s="1">
         <v>1</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2056,16 +2081,16 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="1">
         <v>201002</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -2080,7 +2105,7 @@
       <c r="K10" s="1">
         <v>2</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2094,16 +2119,16 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="1">
         <v>201003</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -2118,7 +2143,7 @@
       <c r="K11" s="1">
         <v>3</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2132,16 +2157,16 @@
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="1">
         <v>201004</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -2156,7 +2181,7 @@
       <c r="K12" s="1">
         <v>4</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2170,16 +2195,16 @@
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="1">
         <v>201005</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="10" t="s">
+      <c r="F13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -2194,7 +2219,7 @@
       <c r="K13" s="1">
         <v>5</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2208,16 +2233,16 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="1">
         <v>201006</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -2232,7 +2257,7 @@
       <c r="K14" s="1">
         <v>6</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2246,16 +2271,16 @@
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="1">
         <v>201007</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="F15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -2270,7 +2295,7 @@
       <c r="K15" s="1">
         <v>7</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2284,16 +2309,16 @@
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="2">
         <v>201008</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -2308,7 +2333,7 @@
       <c r="K16" s="2">
         <v>1</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="L16" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2322,16 +2347,16 @@
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="2">
         <v>201009</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="F17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -2346,7 +2371,7 @@
       <c r="K17" s="2">
         <v>2</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2360,16 +2385,16 @@
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="2">
         <v>201010</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="11" t="s">
+      <c r="F18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -2384,7 +2409,7 @@
       <c r="K18" s="2">
         <v>3</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2398,16 +2423,16 @@
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="2">
         <v>201011</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="F19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -2422,7 +2447,7 @@
       <c r="K19" s="2">
         <v>4</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2436,16 +2461,16 @@
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="2">
         <v>201012</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="11" t="s">
+      <c r="F20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -2460,7 +2485,7 @@
       <c r="K20" s="2">
         <v>5</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2474,16 +2499,16 @@
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="2">
         <v>201013</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="11" t="s">
+      <c r="F21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -2498,7 +2523,7 @@
       <c r="K21" s="2">
         <v>6</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2512,16 +2537,16 @@
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="2">
         <v>201014</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="11" t="s">
+      <c r="F22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -2536,7 +2561,7 @@
       <c r="K22" s="2">
         <v>7</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2550,16 +2575,16 @@
       <c r="C23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="3">
         <v>202001</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="12" t="s">
+      <c r="F23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -2574,7 +2599,7 @@
       <c r="K23" s="3">
         <v>1</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="L23" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2588,16 +2613,16 @@
       <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="3">
         <v>202002</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="12" t="s">
+      <c r="F24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -2612,7 +2637,7 @@
       <c r="K24" s="3">
         <v>2</v>
       </c>
-      <c r="L24" s="17" t="s">
+      <c r="L24" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2626,16 +2651,16 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="3">
         <v>202003</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="12" t="s">
+      <c r="F25" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -2650,7 +2675,7 @@
       <c r="K25" s="3">
         <v>3</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="L25" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2664,16 +2689,16 @@
       <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="3">
         <v>202004</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="12" t="s">
+      <c r="F26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -2688,7 +2713,7 @@
       <c r="K26" s="3">
         <v>4</v>
       </c>
-      <c r="L26" s="17" t="s">
+      <c r="L26" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2702,16 +2727,16 @@
       <c r="C27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="3">
         <v>202005</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="12" t="s">
+      <c r="F27" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -2726,7 +2751,7 @@
       <c r="K27" s="3">
         <v>5</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="L27" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2740,16 +2765,16 @@
       <c r="C28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="3">
         <v>202006</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="12" t="s">
+      <c r="F28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -2764,7 +2789,7 @@
       <c r="K28" s="3">
         <v>6</v>
       </c>
-      <c r="L28" s="17" t="s">
+      <c r="L28" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2778,16 +2803,16 @@
       <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="3">
         <v>202007</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="12" t="s">
+      <c r="F29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -2802,7 +2827,7 @@
       <c r="K29" s="3">
         <v>7</v>
       </c>
-      <c r="L29" s="17" t="s">
+      <c r="L29" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2816,16 +2841,16 @@
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="2">
         <v>203001</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="11" t="s">
+      <c r="F30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -2840,7 +2865,7 @@
       <c r="K30" s="2">
         <v>1</v>
       </c>
-      <c r="L30" s="18" t="s">
+      <c r="L30" s="19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2854,16 +2879,16 @@
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="2">
         <v>203002</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="11" t="s">
+      <c r="F31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -2878,7 +2903,7 @@
       <c r="K31" s="2">
         <v>2</v>
       </c>
-      <c r="L31" s="18" t="s">
+      <c r="L31" s="19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2892,16 +2917,16 @@
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="2">
         <v>203003</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="11" t="s">
+      <c r="F32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -2916,7 +2941,7 @@
       <c r="K32" s="2">
         <v>3</v>
       </c>
-      <c r="L32" s="18" t="s">
+      <c r="L32" s="19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2930,16 +2955,16 @@
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="2">
         <v>203004</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="11" t="s">
+      <c r="F33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -2954,7 +2979,7 @@
       <c r="K33" s="2">
         <v>4</v>
       </c>
-      <c r="L33" s="18" t="s">
+      <c r="L33" s="19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2968,16 +2993,16 @@
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="2">
         <v>203005</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="11" t="s">
+      <c r="F34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H34" s="2" t="s">
@@ -2992,7 +3017,7 @@
       <c r="K34" s="2">
         <v>5</v>
       </c>
-      <c r="L34" s="18" t="s">
+      <c r="L34" s="19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3006,16 +3031,16 @@
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="2">
         <v>203006</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="11" t="s">
+      <c r="F35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -3030,7 +3055,7 @@
       <c r="K35" s="2">
         <v>6</v>
       </c>
-      <c r="L35" s="18" t="s">
+      <c r="L35" s="19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3044,16 +3069,16 @@
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="2">
         <v>203007</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="11" t="s">
+      <c r="F36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H36" s="2" t="s">
@@ -3068,7 +3093,7 @@
       <c r="K36" s="2">
         <v>7</v>
       </c>
-      <c r="L36" s="18" t="s">
+      <c r="L36" s="19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3082,16 +3107,16 @@
       <c r="C37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="3">
         <v>204001</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="12" t="s">
+      <c r="F37" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H37" s="3" t="s">
@@ -3106,7 +3131,7 @@
       <c r="K37" s="3">
         <v>1</v>
       </c>
-      <c r="L37" s="17" t="s">
+      <c r="L37" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3120,16 +3145,16 @@
       <c r="C38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E38" s="3">
         <v>204002</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="12" t="s">
+      <c r="F38" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H38" s="3" t="s">
@@ -3144,7 +3169,7 @@
       <c r="K38" s="3">
         <v>2</v>
       </c>
-      <c r="L38" s="17" t="s">
+      <c r="L38" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3158,16 +3183,16 @@
       <c r="C39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E39" s="3">
         <v>204003</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="12" t="s">
+      <c r="F39" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -3182,7 +3207,7 @@
       <c r="K39" s="3">
         <v>3</v>
       </c>
-      <c r="L39" s="17" t="s">
+      <c r="L39" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3196,16 +3221,16 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E40" s="3">
         <v>204004</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="12" t="s">
+      <c r="F40" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H40" s="3" t="s">
@@ -3220,7 +3245,7 @@
       <c r="K40" s="3">
         <v>4</v>
       </c>
-      <c r="L40" s="17" t="s">
+      <c r="L40" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3234,16 +3259,16 @@
       <c r="C41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E41" s="3">
         <v>204005</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="12" t="s">
+      <c r="F41" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H41" s="3" t="s">
@@ -3258,7 +3283,7 @@
       <c r="K41" s="3">
         <v>5</v>
       </c>
-      <c r="L41" s="17" t="s">
+      <c r="L41" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3272,16 +3297,16 @@
       <c r="C42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="3">
         <v>204006</v>
       </c>
-      <c r="F42" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="12" t="s">
+      <c r="F42" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H42" s="3" t="s">
@@ -3296,7 +3321,7 @@
       <c r="K42" s="3">
         <v>6</v>
       </c>
-      <c r="L42" s="17" t="s">
+      <c r="L42" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3310,16 +3335,16 @@
       <c r="C43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="3">
         <v>204007</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="12" t="s">
+      <c r="F43" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -3334,7 +3359,7 @@
       <c r="K43" s="3">
         <v>7</v>
       </c>
-      <c r="L43" s="17" t="s">
+      <c r="L43" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3348,16 +3373,16 @@
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="2">
         <v>205001</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="11" t="s">
+      <c r="F44" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H44" s="2" t="s">
@@ -3372,7 +3397,7 @@
       <c r="K44" s="2">
         <v>1</v>
       </c>
-      <c r="L44" s="18" t="s">
+      <c r="L44" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3386,16 +3411,16 @@
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="2">
         <v>205002</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="11" t="s">
+      <c r="F45" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H45" s="2" t="s">
@@ -3410,7 +3435,7 @@
       <c r="K45" s="2">
         <v>2</v>
       </c>
-      <c r="L45" s="18" t="s">
+      <c r="L45" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3424,16 +3449,16 @@
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="2">
         <v>205003</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="11" t="s">
+      <c r="F46" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H46" s="2" t="s">
@@ -3448,7 +3473,7 @@
       <c r="K46" s="2">
         <v>3</v>
       </c>
-      <c r="L46" s="18" t="s">
+      <c r="L46" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3462,16 +3487,16 @@
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="2">
         <v>205004</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="11" t="s">
+      <c r="F47" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H47" s="2" t="s">
@@ -3486,7 +3511,7 @@
       <c r="K47" s="2">
         <v>4</v>
       </c>
-      <c r="L47" s="18" t="s">
+      <c r="L47" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3500,16 +3525,16 @@
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E48" s="2">
         <v>205005</v>
       </c>
-      <c r="F48" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="11" t="s">
+      <c r="F48" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H48" s="2" t="s">
@@ -3524,7 +3549,7 @@
       <c r="K48" s="2">
         <v>5</v>
       </c>
-      <c r="L48" s="18" t="s">
+      <c r="L48" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3538,16 +3563,16 @@
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E49" s="2">
         <v>205006</v>
       </c>
-      <c r="F49" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="11" t="s">
+      <c r="F49" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H49" s="2" t="s">
@@ -3562,7 +3587,7 @@
       <c r="K49" s="2">
         <v>6</v>
       </c>
-      <c r="L49" s="18" t="s">
+      <c r="L49" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3576,16 +3601,16 @@
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E50" s="2">
         <v>205007</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="11" t="s">
+      <c r="F50" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H50" s="2" t="s">
@@ -3600,7 +3625,7 @@
       <c r="K50" s="2">
         <v>7</v>
       </c>
-      <c r="L50" s="18" t="s">
+      <c r="L50" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3611,34 +3636,34 @@
       <c r="B51" s="2">
         <v>208</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="9" t="s">
+      <c r="C51" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="14">
         <v>206001</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H51" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="13" t="s">
+      <c r="H51" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J51" s="13" t="s">
+      <c r="J51" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K51" s="13">
+      <c r="K51" s="14">
         <v>1</v>
       </c>
-      <c r="L51" s="19" t="s">
+      <c r="L51" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3649,34 +3674,34 @@
       <c r="B52" s="2">
         <v>208</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="9" t="s">
+      <c r="C52" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="14">
         <v>206002</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H52" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" s="13" t="s">
+      <c r="H52" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J52" s="13" t="s">
+      <c r="J52" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K52" s="13">
+      <c r="K52" s="14">
         <v>2</v>
       </c>
-      <c r="L52" s="19" t="s">
+      <c r="L52" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3687,34 +3712,34 @@
       <c r="B53" s="2">
         <v>208</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="9" t="s">
+      <c r="C53" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="14">
         <v>206003</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H53" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" s="13" t="s">
+      <c r="H53" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J53" s="13" t="s">
+      <c r="J53" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K53" s="13">
+      <c r="K53" s="14">
         <v>3</v>
       </c>
-      <c r="L53" s="19" t="s">
+      <c r="L53" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3725,34 +3750,34 @@
       <c r="B54" s="2">
         <v>208</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="9" t="s">
+      <c r="C54" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="14">
         <v>206004</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H54" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I54" s="13" t="s">
+      <c r="H54" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J54" s="13" t="s">
+      <c r="J54" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K54" s="13">
+      <c r="K54" s="14">
         <v>4</v>
       </c>
-      <c r="L54" s="19" t="s">
+      <c r="L54" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3763,34 +3788,34 @@
       <c r="B55" s="2">
         <v>208</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="9" t="s">
+      <c r="C55" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="14">
         <v>206005</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H55" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" s="13" t="s">
+      <c r="H55" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J55" s="13" t="s">
+      <c r="J55" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K55" s="13">
+      <c r="K55" s="14">
         <v>5</v>
       </c>
-      <c r="L55" s="19" t="s">
+      <c r="L55" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3801,34 +3826,34 @@
       <c r="B56" s="2">
         <v>208</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="9" t="s">
+      <c r="C56" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="14">
         <v>206006</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H56" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" s="13" t="s">
+      <c r="H56" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J56" s="13" t="s">
+      <c r="J56" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K56" s="13">
+      <c r="K56" s="14">
         <v>6</v>
       </c>
-      <c r="L56" s="19" t="s">
+      <c r="L56" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3839,34 +3864,34 @@
       <c r="B57" s="2">
         <v>208</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="9" t="s">
+      <c r="C57" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="14">
         <v>206007</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H57" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" s="13" t="s">
+      <c r="H57" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J57" s="13" t="s">
+      <c r="J57" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K57" s="14">
         <v>7</v>
       </c>
-      <c r="L57" s="19" t="s">
+      <c r="L57" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3880,16 +3905,16 @@
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E58" s="2">
         <v>213001</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F58" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H58" s="2" t="s">
@@ -3904,7 +3929,7 @@
       <c r="K58" s="2">
         <v>1</v>
       </c>
-      <c r="L58" s="20" t="s">
+      <c r="L58" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3918,16 +3943,16 @@
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E59" s="2">
         <v>213002</v>
       </c>
-      <c r="F59" s="14" t="s">
+      <c r="F59" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H59" s="2" t="s">
@@ -3942,7 +3967,7 @@
       <c r="K59" s="2">
         <v>2</v>
       </c>
-      <c r="L59" s="20" t="s">
+      <c r="L59" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3956,16 +3981,16 @@
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E60" s="2">
         <v>213003</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="F60" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="G60" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H60" s="2" t="s">
@@ -3980,7 +4005,7 @@
       <c r="K60" s="2">
         <v>3</v>
       </c>
-      <c r="L60" s="20" t="s">
+      <c r="L60" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3994,16 +4019,16 @@
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E61" s="2">
         <v>213004</v>
       </c>
-      <c r="F61" s="14" t="s">
+      <c r="F61" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G61" s="11" t="s">
+      <c r="G61" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H61" s="2" t="s">
@@ -4018,7 +4043,7 @@
       <c r="K61" s="2">
         <v>4</v>
       </c>
-      <c r="L61" s="20" t="s">
+      <c r="L61" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4032,16 +4057,16 @@
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E62" s="2">
         <v>213005</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F62" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="G62" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H62" s="2" t="s">
@@ -4056,7 +4081,7 @@
       <c r="K62" s="2">
         <v>5</v>
       </c>
-      <c r="L62" s="20" t="s">
+      <c r="L62" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4070,16 +4095,16 @@
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E63" s="2">
         <v>213006</v>
       </c>
-      <c r="F63" s="14" t="s">
+      <c r="F63" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G63" s="11" t="s">
+      <c r="G63" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H63" s="2" t="s">
@@ -4094,7 +4119,7 @@
       <c r="K63" s="2">
         <v>6</v>
       </c>
-      <c r="L63" s="20" t="s">
+      <c r="L63" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4108,16 +4133,16 @@
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="2">
         <v>213007</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G64" s="11" t="s">
+      <c r="G64" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H64" s="2" t="s">
@@ -4132,7 +4157,7 @@
       <c r="K64" s="2">
         <v>7</v>
       </c>
-      <c r="L64" s="20" t="s">
+      <c r="L64" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4143,19 +4168,19 @@
       <c r="B65" s="2">
         <v>214</v>
       </c>
-      <c r="C65" s="21">
-        <v>0</v>
-      </c>
-      <c r="D65" s="14" t="s">
+      <c r="C65" s="22">
+        <v>0</v>
+      </c>
+      <c r="D65" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E65" s="2">
         <v>214001</v>
       </c>
-      <c r="F65" s="14" t="s">
+      <c r="F65" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G65" s="11" t="s">
+      <c r="G65" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H65" s="2" t="s">
@@ -4170,7 +4195,7 @@
       <c r="K65" s="2">
         <v>1</v>
       </c>
-      <c r="L65" s="20" t="s">
+      <c r="L65" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4181,19 +4206,19 @@
       <c r="B66" s="2">
         <v>214</v>
       </c>
-      <c r="C66" s="21">
-        <v>0</v>
-      </c>
-      <c r="D66" s="14" t="s">
+      <c r="C66" s="22">
+        <v>0</v>
+      </c>
+      <c r="D66" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E66" s="2">
         <v>214002</v>
       </c>
-      <c r="F66" s="14" t="s">
+      <c r="F66" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="G66" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H66" s="2" t="s">
@@ -4208,7 +4233,7 @@
       <c r="K66" s="2">
         <v>2</v>
       </c>
-      <c r="L66" s="20" t="s">
+      <c r="L66" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4219,19 +4244,19 @@
       <c r="B67" s="2">
         <v>214</v>
       </c>
-      <c r="C67" s="21">
-        <v>0</v>
-      </c>
-      <c r="D67" s="14" t="s">
+      <c r="C67" s="22">
+        <v>0</v>
+      </c>
+      <c r="D67" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E67" s="2">
         <v>214003</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="F67" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G67" s="11" t="s">
+      <c r="G67" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H67" s="2" t="s">
@@ -4246,7 +4271,7 @@
       <c r="K67" s="2">
         <v>3</v>
       </c>
-      <c r="L67" s="20" t="s">
+      <c r="L67" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4257,19 +4282,19 @@
       <c r="B68" s="2">
         <v>214</v>
       </c>
-      <c r="C68" s="21">
-        <v>0</v>
-      </c>
-      <c r="D68" s="14" t="s">
+      <c r="C68" s="22">
+        <v>0</v>
+      </c>
+      <c r="D68" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E68" s="2">
         <v>214004</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="G68" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H68" s="2" t="s">
@@ -4284,7 +4309,7 @@
       <c r="K68" s="2">
         <v>4</v>
       </c>
-      <c r="L68" s="20" t="s">
+      <c r="L68" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4295,19 +4320,19 @@
       <c r="B69" s="2">
         <v>214</v>
       </c>
-      <c r="C69" s="21">
-        <v>0</v>
-      </c>
-      <c r="D69" s="14" t="s">
+      <c r="C69" s="22">
+        <v>0</v>
+      </c>
+      <c r="D69" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E69" s="2">
         <v>214005</v>
       </c>
-      <c r="F69" s="14" t="s">
+      <c r="F69" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G69" s="11" t="s">
+      <c r="G69" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H69" s="2" t="s">
@@ -4322,7 +4347,7 @@
       <c r="K69" s="2">
         <v>5</v>
       </c>
-      <c r="L69" s="20" t="s">
+      <c r="L69" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4333,19 +4358,19 @@
       <c r="B70" s="2">
         <v>215</v>
       </c>
-      <c r="C70" s="21">
-        <v>0</v>
-      </c>
-      <c r="D70" s="14" t="s">
+      <c r="C70" s="22">
+        <v>0</v>
+      </c>
+      <c r="D70" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E70" s="2">
         <v>215001</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="F70" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="G70" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H70" s="2" t="s">
@@ -4360,7 +4385,7 @@
       <c r="K70" s="2">
         <v>6</v>
       </c>
-      <c r="L70" s="20" t="s">
+      <c r="L70" s="21" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4371,22 +4396,22 @@
       <c r="B71" s="2">
         <v>216</v>
       </c>
-      <c r="C71" s="21">
-        <v>0</v>
-      </c>
-      <c r="D71" s="14" t="s">
+      <c r="C71" s="22">
+        <v>0</v>
+      </c>
+      <c r="D71" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E71" s="2">
         <v>216001</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G71" s="14" t="s">
+      <c r="G71" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H71" s="22">
+      <c r="H71" s="23">
         <v>1</v>
       </c>
       <c r="I71" s="2" t="s">
@@ -4398,7 +4423,7 @@
       <c r="K71" s="2">
         <v>6</v>
       </c>
-      <c r="L71" s="20" t="s">
+      <c r="L71" s="21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4409,22 +4434,22 @@
       <c r="B72" s="2">
         <v>217</v>
       </c>
-      <c r="C72" s="21">
-        <v>0</v>
-      </c>
-      <c r="D72" s="11" t="s">
+      <c r="C72" s="22">
+        <v>0</v>
+      </c>
+      <c r="D72" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E72" s="2">
         <v>217001</v>
       </c>
-      <c r="F72" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="22">
+      <c r="F72" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="23">
         <v>1</v>
       </c>
       <c r="I72" s="2" t="s">
@@ -4436,7 +4461,7 @@
       <c r="K72" s="2">
         <v>1</v>
       </c>
-      <c r="L72" s="20" t="s">
+      <c r="L72" s="21" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4447,22 +4472,22 @@
       <c r="B73" s="2">
         <v>217</v>
       </c>
-      <c r="C73" s="21">
-        <v>0</v>
-      </c>
-      <c r="D73" s="11" t="s">
+      <c r="C73" s="22">
+        <v>0</v>
+      </c>
+      <c r="D73" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E73" s="2">
         <v>217002</v>
       </c>
-      <c r="F73" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" s="22">
+      <c r="F73" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="23">
         <v>1</v>
       </c>
       <c r="I73" s="2" t="s">
@@ -4474,7 +4499,7 @@
       <c r="K73" s="2">
         <v>2</v>
       </c>
-      <c r="L73" s="20" t="s">
+      <c r="L73" s="21" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4485,22 +4510,22 @@
       <c r="B74" s="2">
         <v>217</v>
       </c>
-      <c r="C74" s="21">
-        <v>0</v>
-      </c>
-      <c r="D74" s="11" t="s">
+      <c r="C74" s="22">
+        <v>0</v>
+      </c>
+      <c r="D74" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E74" s="2">
         <v>217003</v>
       </c>
-      <c r="F74" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" s="22">
+      <c r="F74" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="23">
         <v>1</v>
       </c>
       <c r="I74" s="2" t="s">
@@ -4512,7 +4537,7 @@
       <c r="K74" s="2">
         <v>3</v>
       </c>
-      <c r="L74" s="20" t="s">
+      <c r="L74" s="21" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4523,22 +4548,22 @@
       <c r="B75" s="2">
         <v>217</v>
       </c>
-      <c r="C75" s="21">
-        <v>0</v>
-      </c>
-      <c r="D75" s="11" t="s">
+      <c r="C75" s="22">
+        <v>0</v>
+      </c>
+      <c r="D75" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E75" s="2">
         <v>217004</v>
       </c>
-      <c r="F75" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" s="22">
+      <c r="F75" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="23">
         <v>1</v>
       </c>
       <c r="I75" s="2" t="s">
@@ -4550,7 +4575,7 @@
       <c r="K75" s="2">
         <v>4</v>
       </c>
-      <c r="L75" s="20" t="s">
+      <c r="L75" s="21" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4561,22 +4586,22 @@
       <c r="B76" s="2">
         <v>217</v>
       </c>
-      <c r="C76" s="21">
-        <v>0</v>
-      </c>
-      <c r="D76" s="11" t="s">
+      <c r="C76" s="22">
+        <v>0</v>
+      </c>
+      <c r="D76" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E76" s="2">
         <v>217005</v>
       </c>
-      <c r="F76" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="22">
+      <c r="F76" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="23">
         <v>1</v>
       </c>
       <c r="I76" s="2" t="s">
@@ -4588,7 +4613,7 @@
       <c r="K76" s="2">
         <v>5</v>
       </c>
-      <c r="L76" s="20" t="s">
+      <c r="L76" s="21" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4599,22 +4624,22 @@
       <c r="B77" s="2">
         <v>217</v>
       </c>
-      <c r="C77" s="21">
-        <v>0</v>
-      </c>
-      <c r="D77" s="11" t="s">
+      <c r="C77" s="22">
+        <v>0</v>
+      </c>
+      <c r="D77" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E77" s="2">
         <v>217006</v>
       </c>
-      <c r="F77" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="22">
+      <c r="F77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="23">
         <v>1</v>
       </c>
       <c r="I77" s="2" t="s">
@@ -4626,7 +4651,7 @@
       <c r="K77" s="2">
         <v>6</v>
       </c>
-      <c r="L77" s="20" t="s">
+      <c r="L77" s="21" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4637,22 +4662,22 @@
       <c r="B78" s="2">
         <v>217</v>
       </c>
-      <c r="C78" s="21">
-        <v>0</v>
-      </c>
-      <c r="D78" s="11" t="s">
+      <c r="C78" s="22">
+        <v>0</v>
+      </c>
+      <c r="D78" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E78" s="2">
         <v>217007</v>
       </c>
-      <c r="F78" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="22">
+      <c r="F78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="23">
         <v>1</v>
       </c>
       <c r="I78" s="2" t="s">
@@ -4664,7 +4689,7 @@
       <c r="K78" s="2">
         <v>7</v>
       </c>
-      <c r="L78" s="20" t="s">
+      <c r="L78" s="21" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4675,19 +4700,19 @@
       <c r="B79" s="3">
         <v>218</v>
       </c>
-      <c r="C79" s="23">
-        <v>0</v>
-      </c>
-      <c r="D79" s="24" t="s">
+      <c r="C79" s="24">
+        <v>0</v>
+      </c>
+      <c r="D79" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E79" s="3">
         <v>218001</v>
       </c>
-      <c r="F79" s="24" t="s">
+      <c r="F79" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G79" s="12" t="s">
+      <c r="G79" s="13" t="s">
         <v>24</v>
       </c>
       <c r="H79" s="3" t="s">
@@ -4702,7 +4727,7 @@
       <c r="K79" s="3">
         <v>7</v>
       </c>
-      <c r="L79" s="32" t="s">
+      <c r="L79" s="33" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4716,19 +4741,19 @@
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E80" s="2">
         <v>220001</v>
       </c>
-      <c r="F80" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="22">
+      <c r="F80" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="23">
         <v>1</v>
       </c>
       <c r="I80" s="2" t="s">
@@ -4740,7 +4765,7 @@
       <c r="K80" s="2">
         <v>1</v>
       </c>
-      <c r="L80" s="33" t="s">
+      <c r="L80" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4754,19 +4779,19 @@
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E81" s="2">
         <v>220002</v>
       </c>
-      <c r="F81" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="22">
+      <c r="F81" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="23">
         <v>1</v>
       </c>
       <c r="I81" s="2" t="s">
@@ -4778,7 +4803,7 @@
       <c r="K81" s="2">
         <v>2</v>
       </c>
-      <c r="L81" s="33" t="s">
+      <c r="L81" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4792,19 +4817,19 @@
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E82" s="2">
         <v>220003</v>
       </c>
-      <c r="F82" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" s="22">
+      <c r="F82" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="23">
         <v>1</v>
       </c>
       <c r="I82" s="2" t="s">
@@ -4816,7 +4841,7 @@
       <c r="K82" s="2">
         <v>3</v>
       </c>
-      <c r="L82" s="33" t="s">
+      <c r="L82" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4830,19 +4855,19 @@
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E83" s="2">
         <v>220004</v>
       </c>
-      <c r="F83" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" s="22">
+      <c r="F83" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="23">
         <v>1</v>
       </c>
       <c r="I83" s="2" t="s">
@@ -4854,7 +4879,7 @@
       <c r="K83" s="2">
         <v>4</v>
       </c>
-      <c r="L83" s="33" t="s">
+      <c r="L83" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4868,19 +4893,19 @@
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E84" s="2">
         <v>220005</v>
       </c>
-      <c r="F84" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" s="22">
+      <c r="F84" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="23">
         <v>1</v>
       </c>
       <c r="I84" s="2" t="s">
@@ -4892,7 +4917,7 @@
       <c r="K84" s="2">
         <v>5</v>
       </c>
-      <c r="L84" s="33" t="s">
+      <c r="L84" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4906,19 +4931,19 @@
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E85" s="2">
         <v>220006</v>
       </c>
-      <c r="F85" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H85" s="22">
+      <c r="F85" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="23">
         <v>1</v>
       </c>
       <c r="I85" s="2" t="s">
@@ -4930,7 +4955,7 @@
       <c r="K85" s="2">
         <v>6</v>
       </c>
-      <c r="L85" s="33" t="s">
+      <c r="L85" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4944,19 +4969,19 @@
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E86" s="2">
         <v>220007</v>
       </c>
-      <c r="F86" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="22">
+      <c r="F86" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="23">
         <v>1</v>
       </c>
       <c r="I86" s="2" t="s">
@@ -4968,7 +4993,7 @@
       <c r="K86" s="2">
         <v>7</v>
       </c>
-      <c r="L86" s="33" t="s">
+      <c r="L86" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4982,19 +5007,19 @@
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E87" s="2">
         <v>221001</v>
       </c>
-      <c r="F87" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="22">
+      <c r="F87" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="23">
         <v>1</v>
       </c>
       <c r="I87" s="2" t="s">
@@ -5006,7 +5031,7 @@
       <c r="K87" s="2">
         <v>1</v>
       </c>
-      <c r="L87" s="33" t="s">
+      <c r="L87" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5020,19 +5045,19 @@
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E88" s="2">
         <v>221002</v>
       </c>
-      <c r="F88" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H88" s="22">
+      <c r="F88" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="23">
         <v>1</v>
       </c>
       <c r="I88" s="2" t="s">
@@ -5044,7 +5069,7 @@
       <c r="K88" s="2">
         <v>2</v>
       </c>
-      <c r="L88" s="33" t="s">
+      <c r="L88" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5058,19 +5083,19 @@
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E89" s="2">
         <v>221003</v>
       </c>
-      <c r="F89" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H89" s="22">
+      <c r="F89" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="23">
         <v>1</v>
       </c>
       <c r="I89" s="2" t="s">
@@ -5082,7 +5107,7 @@
       <c r="K89" s="2">
         <v>3</v>
       </c>
-      <c r="L89" s="33" t="s">
+      <c r="L89" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5096,19 +5121,19 @@
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E90" s="2">
         <v>221004</v>
       </c>
-      <c r="F90" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H90" s="22">
+      <c r="F90" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="23">
         <v>1</v>
       </c>
       <c r="I90" s="2" t="s">
@@ -5120,7 +5145,7 @@
       <c r="K90" s="2">
         <v>4</v>
       </c>
-      <c r="L90" s="33" t="s">
+      <c r="L90" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5134,19 +5159,19 @@
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E91" s="2">
         <v>221005</v>
       </c>
-      <c r="F91" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" s="22">
+      <c r="F91" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="23">
         <v>1</v>
       </c>
       <c r="I91" s="2" t="s">
@@ -5158,7 +5183,7 @@
       <c r="K91" s="2">
         <v>5</v>
       </c>
-      <c r="L91" s="33" t="s">
+      <c r="L91" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5172,19 +5197,19 @@
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E92" s="2">
         <v>221006</v>
       </c>
-      <c r="F92" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H92" s="22">
+      <c r="F92" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="23">
         <v>1</v>
       </c>
       <c r="I92" s="2" t="s">
@@ -5196,7 +5221,7 @@
       <c r="K92" s="2">
         <v>6</v>
       </c>
-      <c r="L92" s="33" t="s">
+      <c r="L92" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5210,19 +5235,19 @@
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E93" s="2">
         <v>221007</v>
       </c>
-      <c r="F93" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H93" s="22">
+      <c r="F93" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="23">
         <v>1</v>
       </c>
       <c r="I93" s="2" t="s">
@@ -5234,30 +5259,30 @@
       <c r="K93" s="2">
         <v>7</v>
       </c>
-      <c r="L93" s="33" t="s">
+      <c r="L93" s="34" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="94" s="4" customFormat="1" spans="1:12">
-      <c r="A94" s="25">
+      <c r="A94" s="26">
         <v>230001</v>
       </c>
-      <c r="B94" s="25">
+      <c r="B94" s="26">
         <v>230</v>
       </c>
-      <c r="C94" s="26">
-        <v>0</v>
-      </c>
-      <c r="D94" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E94" s="25">
+      <c r="C94" s="27">
+        <v>0</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E94" s="26">
         <v>230001</v>
       </c>
-      <c r="F94" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G94" s="27" t="s">
+      <c r="F94" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G94" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H94" s="4" t="s">
@@ -5272,30 +5297,30 @@
       <c r="K94" s="4">
         <v>1</v>
       </c>
-      <c r="L94" s="34" t="s">
+      <c r="L94" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="95" s="4" customFormat="1" spans="1:12">
-      <c r="A95" s="25">
+      <c r="A95" s="26">
         <v>230002</v>
       </c>
-      <c r="B95" s="25">
+      <c r="B95" s="26">
         <v>230</v>
       </c>
-      <c r="C95" s="26">
-        <v>0</v>
-      </c>
-      <c r="D95" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E95" s="25">
+      <c r="C95" s="27">
+        <v>0</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E95" s="26">
         <v>230002</v>
       </c>
-      <c r="F95" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G95" s="27" t="s">
+      <c r="F95" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G95" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H95" s="4" t="s">
@@ -5310,30 +5335,30 @@
       <c r="K95" s="4">
         <v>2</v>
       </c>
-      <c r="L95" s="34" t="s">
+      <c r="L95" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="96" s="4" customFormat="1" spans="1:12">
-      <c r="A96" s="25">
+      <c r="A96" s="26">
         <v>230003</v>
       </c>
-      <c r="B96" s="25">
+      <c r="B96" s="26">
         <v>230</v>
       </c>
-      <c r="C96" s="26">
-        <v>0</v>
-      </c>
-      <c r="D96" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E96" s="25">
+      <c r="C96" s="27">
+        <v>0</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E96" s="26">
         <v>230003</v>
       </c>
-      <c r="F96" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G96" s="27" t="s">
+      <c r="F96" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G96" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H96" s="4" t="s">
@@ -5348,30 +5373,30 @@
       <c r="K96" s="4">
         <v>3</v>
       </c>
-      <c r="L96" s="34" t="s">
+      <c r="L96" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="97" s="4" customFormat="1" spans="1:12">
-      <c r="A97" s="25">
+      <c r="A97" s="26">
         <v>230004</v>
       </c>
-      <c r="B97" s="25">
+      <c r="B97" s="26">
         <v>230</v>
       </c>
-      <c r="C97" s="26">
-        <v>0</v>
-      </c>
-      <c r="D97" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E97" s="25">
+      <c r="C97" s="27">
+        <v>0</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E97" s="26">
         <v>230004</v>
       </c>
-      <c r="F97" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G97" s="27" t="s">
+      <c r="F97" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G97" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H97" s="4" t="s">
@@ -5386,30 +5411,30 @@
       <c r="K97" s="4">
         <v>4</v>
       </c>
-      <c r="L97" s="34" t="s">
+      <c r="L97" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="98" s="4" customFormat="1" spans="1:12">
-      <c r="A98" s="25">
+      <c r="A98" s="26">
         <v>230005</v>
       </c>
-      <c r="B98" s="25">
+      <c r="B98" s="26">
         <v>230</v>
       </c>
-      <c r="C98" s="26">
-        <v>0</v>
-      </c>
-      <c r="D98" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E98" s="25">
+      <c r="C98" s="27">
+        <v>0</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E98" s="26">
         <v>230005</v>
       </c>
-      <c r="F98" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G98" s="27" t="s">
+      <c r="F98" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G98" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H98" s="4" t="s">
@@ -5424,30 +5449,30 @@
       <c r="K98" s="4">
         <v>5</v>
       </c>
-      <c r="L98" s="34" t="s">
+      <c r="L98" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="99" s="4" customFormat="1" spans="1:12">
-      <c r="A99" s="25">
+      <c r="A99" s="26">
         <v>230006</v>
       </c>
-      <c r="B99" s="25">
+      <c r="B99" s="26">
         <v>230</v>
       </c>
-      <c r="C99" s="26">
-        <v>0</v>
-      </c>
-      <c r="D99" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E99" s="25">
+      <c r="C99" s="27">
+        <v>0</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E99" s="26">
         <v>230006</v>
       </c>
-      <c r="F99" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G99" s="27" t="s">
+      <c r="F99" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G99" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H99" s="4" t="s">
@@ -5462,30 +5487,30 @@
       <c r="K99" s="4">
         <v>6</v>
       </c>
-      <c r="L99" s="34" t="s">
+      <c r="L99" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="100" s="4" customFormat="1" spans="1:12">
-      <c r="A100" s="25">
+      <c r="A100" s="26">
         <v>230007</v>
       </c>
-      <c r="B100" s="25">
+      <c r="B100" s="26">
         <v>230</v>
       </c>
-      <c r="C100" s="26">
-        <v>0</v>
-      </c>
-      <c r="D100" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E100" s="25">
+      <c r="C100" s="27">
+        <v>0</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E100" s="26">
         <v>230007</v>
       </c>
-      <c r="F100" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G100" s="27" t="s">
+      <c r="F100" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G100" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H100" s="4" t="s">
@@ -5500,30 +5525,30 @@
       <c r="K100" s="4">
         <v>7</v>
       </c>
-      <c r="L100" s="34" t="s">
+      <c r="L100" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="25">
+      <c r="A101" s="26">
         <v>231001</v>
       </c>
-      <c r="B101" s="25">
+      <c r="B101" s="26">
         <v>231</v>
       </c>
-      <c r="C101" s="26">
-        <v>0</v>
-      </c>
-      <c r="D101" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E101" s="25">
+      <c r="C101" s="27">
+        <v>0</v>
+      </c>
+      <c r="D101" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E101" s="26">
         <v>231001</v>
       </c>
-      <c r="F101" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G101" s="27" t="s">
+      <c r="F101" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G101" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H101" s="4" t="s">
@@ -5538,30 +5563,30 @@
       <c r="K101" s="4">
         <v>1</v>
       </c>
-      <c r="L101" s="34" t="s">
+      <c r="L101" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="25">
+      <c r="A102" s="26">
         <v>231002</v>
       </c>
-      <c r="B102" s="25">
+      <c r="B102" s="26">
         <v>231</v>
       </c>
-      <c r="C102" s="26">
-        <v>0</v>
-      </c>
-      <c r="D102" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E102" s="25">
+      <c r="C102" s="27">
+        <v>0</v>
+      </c>
+      <c r="D102" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E102" s="26">
         <v>231002</v>
       </c>
-      <c r="F102" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G102" s="27" t="s">
+      <c r="F102" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G102" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H102" s="4" t="s">
@@ -5576,30 +5601,30 @@
       <c r="K102" s="4">
         <v>2</v>
       </c>
-      <c r="L102" s="34" t="s">
+      <c r="L102" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="25">
+      <c r="A103" s="26">
         <v>231003</v>
       </c>
-      <c r="B103" s="25">
+      <c r="B103" s="26">
         <v>231</v>
       </c>
-      <c r="C103" s="26">
-        <v>0</v>
-      </c>
-      <c r="D103" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E103" s="25">
+      <c r="C103" s="27">
+        <v>0</v>
+      </c>
+      <c r="D103" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E103" s="26">
         <v>231003</v>
       </c>
-      <c r="F103" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G103" s="27" t="s">
+      <c r="F103" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G103" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H103" s="4" t="s">
@@ -5614,30 +5639,30 @@
       <c r="K103" s="4">
         <v>3</v>
       </c>
-      <c r="L103" s="34" t="s">
+      <c r="L103" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="25">
+      <c r="A104" s="26">
         <v>231004</v>
       </c>
-      <c r="B104" s="25">
+      <c r="B104" s="26">
         <v>231</v>
       </c>
-      <c r="C104" s="26">
-        <v>0</v>
-      </c>
-      <c r="D104" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E104" s="25">
+      <c r="C104" s="27">
+        <v>0</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E104" s="26">
         <v>231004</v>
       </c>
-      <c r="F104" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G104" s="27" t="s">
+      <c r="F104" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G104" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H104" s="4" t="s">
@@ -5652,30 +5677,30 @@
       <c r="K104" s="4">
         <v>4</v>
       </c>
-      <c r="L104" s="34" t="s">
+      <c r="L104" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="25">
+      <c r="A105" s="26">
         <v>231005</v>
       </c>
-      <c r="B105" s="25">
+      <c r="B105" s="26">
         <v>231</v>
       </c>
-      <c r="C105" s="26">
-        <v>0</v>
-      </c>
-      <c r="D105" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E105" s="25">
+      <c r="C105" s="27">
+        <v>0</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E105" s="26">
         <v>231005</v>
       </c>
-      <c r="F105" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G105" s="27" t="s">
+      <c r="F105" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G105" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H105" s="4" t="s">
@@ -5690,30 +5715,30 @@
       <c r="K105" s="4">
         <v>5</v>
       </c>
-      <c r="L105" s="34" t="s">
+      <c r="L105" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="25">
+      <c r="A106" s="26">
         <v>231006</v>
       </c>
-      <c r="B106" s="25">
+      <c r="B106" s="26">
         <v>231</v>
       </c>
-      <c r="C106" s="26">
-        <v>0</v>
-      </c>
-      <c r="D106" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E106" s="25">
+      <c r="C106" s="27">
+        <v>0</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E106" s="26">
         <v>231006</v>
       </c>
-      <c r="F106" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G106" s="27" t="s">
+      <c r="F106" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G106" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H106" s="4" t="s">
@@ -5728,30 +5753,30 @@
       <c r="K106" s="4">
         <v>6</v>
       </c>
-      <c r="L106" s="34" t="s">
+      <c r="L106" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="25">
+      <c r="A107" s="26">
         <v>231007</v>
       </c>
-      <c r="B107" s="25">
+      <c r="B107" s="26">
         <v>231</v>
       </c>
-      <c r="C107" s="26">
-        <v>0</v>
-      </c>
-      <c r="D107" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E107" s="25">
+      <c r="C107" s="27">
+        <v>0</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E107" s="26">
         <v>231007</v>
       </c>
-      <c r="F107" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G107" s="27" t="s">
+      <c r="F107" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G107" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H107" s="4" t="s">
@@ -5766,30 +5791,30 @@
       <c r="K107" s="4">
         <v>7</v>
       </c>
-      <c r="L107" s="34" t="s">
+      <c r="L107" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="28">
+      <c r="A108" s="29">
         <v>232001</v>
       </c>
       <c r="B108" s="5">
         <v>232</v>
       </c>
-      <c r="C108" s="29">
-        <v>0</v>
-      </c>
-      <c r="D108" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E108" s="28">
+      <c r="C108" s="30">
+        <v>0</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E108" s="29">
         <v>232001</v>
       </c>
-      <c r="F108" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G108" s="31" t="s">
+      <c r="F108" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G108" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H108" s="5" t="s">
@@ -5804,30 +5829,30 @@
       <c r="K108" s="5">
         <v>1</v>
       </c>
-      <c r="L108" s="35" t="s">
+      <c r="L108" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="28">
+      <c r="A109" s="29">
         <v>232002</v>
       </c>
       <c r="B109" s="5">
         <v>232</v>
       </c>
-      <c r="C109" s="29">
-        <v>0</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E109" s="28">
+      <c r="C109" s="30">
+        <v>0</v>
+      </c>
+      <c r="D109" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E109" s="29">
         <v>232002</v>
       </c>
-      <c r="F109" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G109" s="31" t="s">
+      <c r="F109" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G109" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H109" s="5" t="s">
@@ -5842,30 +5867,30 @@
       <c r="K109" s="5">
         <v>2</v>
       </c>
-      <c r="L109" s="35" t="s">
+      <c r="L109" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="28">
+      <c r="A110" s="29">
         <v>232003</v>
       </c>
       <c r="B110" s="5">
         <v>232</v>
       </c>
-      <c r="C110" s="29">
-        <v>0</v>
-      </c>
-      <c r="D110" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E110" s="28">
+      <c r="C110" s="30">
+        <v>0</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E110" s="29">
         <v>232003</v>
       </c>
-      <c r="F110" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G110" s="31" t="s">
+      <c r="F110" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G110" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H110" s="5" t="s">
@@ -5880,30 +5905,30 @@
       <c r="K110" s="5">
         <v>3</v>
       </c>
-      <c r="L110" s="35" t="s">
+      <c r="L110" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="111" spans="1:12">
-      <c r="A111" s="28">
+      <c r="A111" s="29">
         <v>232004</v>
       </c>
       <c r="B111" s="5">
         <v>232</v>
       </c>
-      <c r="C111" s="29">
-        <v>0</v>
-      </c>
-      <c r="D111" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E111" s="28">
+      <c r="C111" s="30">
+        <v>0</v>
+      </c>
+      <c r="D111" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E111" s="29">
         <v>232004</v>
       </c>
-      <c r="F111" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G111" s="31" t="s">
+      <c r="F111" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G111" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H111" s="5" t="s">
@@ -5918,30 +5943,30 @@
       <c r="K111" s="5">
         <v>4</v>
       </c>
-      <c r="L111" s="35" t="s">
+      <c r="L111" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112" s="28">
+      <c r="A112" s="29">
         <v>232005</v>
       </c>
       <c r="B112" s="5">
         <v>232</v>
       </c>
-      <c r="C112" s="29">
-        <v>0</v>
-      </c>
-      <c r="D112" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E112" s="28">
+      <c r="C112" s="30">
+        <v>0</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E112" s="29">
         <v>232005</v>
       </c>
-      <c r="F112" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G112" s="31" t="s">
+      <c r="F112" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G112" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H112" s="5" t="s">
@@ -5956,30 +5981,30 @@
       <c r="K112" s="5">
         <v>5</v>
       </c>
-      <c r="L112" s="35" t="s">
+      <c r="L112" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="28">
+      <c r="A113" s="29">
         <v>232006</v>
       </c>
       <c r="B113" s="5">
         <v>232</v>
       </c>
-      <c r="C113" s="29">
-        <v>0</v>
-      </c>
-      <c r="D113" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E113" s="28">
+      <c r="C113" s="30">
+        <v>0</v>
+      </c>
+      <c r="D113" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E113" s="29">
         <v>232006</v>
       </c>
-      <c r="F113" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G113" s="31" t="s">
+      <c r="F113" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G113" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H113" s="5" t="s">
@@ -5994,30 +6019,30 @@
       <c r="K113" s="5">
         <v>6</v>
       </c>
-      <c r="L113" s="35" t="s">
+      <c r="L113" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="28">
+      <c r="A114" s="29">
         <v>232007</v>
       </c>
       <c r="B114" s="5">
         <v>232</v>
       </c>
-      <c r="C114" s="29">
-        <v>0</v>
-      </c>
-      <c r="D114" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E114" s="28">
+      <c r="C114" s="30">
+        <v>0</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E114" s="29">
         <v>232007</v>
       </c>
-      <c r="F114" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G114" s="31" t="s">
+      <c r="F114" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G114" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H114" s="5" t="s">
@@ -6032,30 +6057,30 @@
       <c r="K114" s="5">
         <v>7</v>
       </c>
-      <c r="L114" s="35" t="s">
+      <c r="L114" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="115" s="5" customFormat="1" spans="1:12">
-      <c r="A115" s="28">
+      <c r="A115" s="29">
         <v>245001</v>
       </c>
       <c r="B115" s="5">
         <v>233</v>
       </c>
-      <c r="C115" s="29">
-        <v>0</v>
-      </c>
-      <c r="D115" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E115" s="28">
+      <c r="C115" s="30">
+        <v>0</v>
+      </c>
+      <c r="D115" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E115" s="29">
         <v>245001</v>
       </c>
-      <c r="F115" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G115" s="31" t="s">
+      <c r="F115" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G115" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H115" s="5" t="s">
@@ -6070,30 +6095,30 @@
       <c r="K115" s="5">
         <v>1</v>
       </c>
-      <c r="L115" s="35" t="s">
+      <c r="L115" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="116" s="5" customFormat="1" spans="1:12">
-      <c r="A116" s="28">
+      <c r="A116" s="29">
         <v>245002</v>
       </c>
       <c r="B116" s="5">
         <v>233</v>
       </c>
-      <c r="C116" s="29">
-        <v>0</v>
-      </c>
-      <c r="D116" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E116" s="28">
+      <c r="C116" s="30">
+        <v>0</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E116" s="29">
         <v>245002</v>
       </c>
-      <c r="F116" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G116" s="31" t="s">
+      <c r="F116" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G116" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H116" s="5" t="s">
@@ -6108,30 +6133,30 @@
       <c r="K116" s="5">
         <v>2</v>
       </c>
-      <c r="L116" s="35" t="s">
+      <c r="L116" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="117" s="5" customFormat="1" spans="1:12">
-      <c r="A117" s="28">
+      <c r="A117" s="29">
         <v>245003</v>
       </c>
       <c r="B117" s="5">
         <v>233</v>
       </c>
-      <c r="C117" s="29">
-        <v>0</v>
-      </c>
-      <c r="D117" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E117" s="28">
+      <c r="C117" s="30">
+        <v>0</v>
+      </c>
+      <c r="D117" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E117" s="29">
         <v>245003</v>
       </c>
-      <c r="F117" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G117" s="31" t="s">
+      <c r="F117" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G117" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H117" s="5" t="s">
@@ -6146,30 +6171,30 @@
       <c r="K117" s="5">
         <v>3</v>
       </c>
-      <c r="L117" s="35" t="s">
+      <c r="L117" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="118" s="5" customFormat="1" spans="1:12">
-      <c r="A118" s="28">
+      <c r="A118" s="29">
         <v>245004</v>
       </c>
       <c r="B118" s="5">
         <v>233</v>
       </c>
-      <c r="C118" s="29">
-        <v>0</v>
-      </c>
-      <c r="D118" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E118" s="28">
+      <c r="C118" s="30">
+        <v>0</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E118" s="29">
         <v>245004</v>
       </c>
-      <c r="F118" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G118" s="31" t="s">
+      <c r="F118" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G118" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H118" s="5" t="s">
@@ -6184,30 +6209,30 @@
       <c r="K118" s="5">
         <v>4</v>
       </c>
-      <c r="L118" s="35" t="s">
+      <c r="L118" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="119" s="5" customFormat="1" spans="1:12">
-      <c r="A119" s="28">
+      <c r="A119" s="29">
         <v>245005</v>
       </c>
       <c r="B119" s="5">
         <v>233</v>
       </c>
-      <c r="C119" s="29">
-        <v>0</v>
-      </c>
-      <c r="D119" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E119" s="28">
+      <c r="C119" s="30">
+        <v>0</v>
+      </c>
+      <c r="D119" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E119" s="29">
         <v>245005</v>
       </c>
-      <c r="F119" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G119" s="31" t="s">
+      <c r="F119" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G119" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H119" s="5" t="s">
@@ -6222,30 +6247,30 @@
       <c r="K119" s="5">
         <v>5</v>
       </c>
-      <c r="L119" s="35" t="s">
+      <c r="L119" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="120" s="5" customFormat="1" spans="1:12">
-      <c r="A120" s="28">
+      <c r="A120" s="29">
         <v>245006</v>
       </c>
       <c r="B120" s="5">
         <v>233</v>
       </c>
-      <c r="C120" s="29">
-        <v>0</v>
-      </c>
-      <c r="D120" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E120" s="28">
+      <c r="C120" s="30">
+        <v>0</v>
+      </c>
+      <c r="D120" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E120" s="29">
         <v>245006</v>
       </c>
-      <c r="F120" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G120" s="31" t="s">
+      <c r="F120" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G120" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H120" s="5" t="s">
@@ -6260,30 +6285,30 @@
       <c r="K120" s="5">
         <v>6</v>
       </c>
-      <c r="L120" s="35" t="s">
+      <c r="L120" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="121" s="5" customFormat="1" spans="1:12">
-      <c r="A121" s="28">
+      <c r="A121" s="29">
         <v>245007</v>
       </c>
       <c r="B121" s="5">
         <v>233</v>
       </c>
-      <c r="C121" s="29">
-        <v>0</v>
-      </c>
-      <c r="D121" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E121" s="28">
+      <c r="C121" s="30">
+        <v>0</v>
+      </c>
+      <c r="D121" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E121" s="29">
         <v>245007</v>
       </c>
-      <c r="F121" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G121" s="31" t="s">
+      <c r="F121" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G121" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H121" s="5" t="s">
@@ -6298,30 +6323,30 @@
       <c r="K121" s="5">
         <v>7</v>
       </c>
-      <c r="L121" s="35" t="s">
+      <c r="L121" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="28">
+      <c r="A122" s="29">
         <v>234001</v>
       </c>
       <c r="B122" s="5">
         <v>234</v>
       </c>
-      <c r="C122" s="29">
-        <v>0</v>
-      </c>
-      <c r="D122" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E122" s="28">
+      <c r="C122" s="30">
+        <v>0</v>
+      </c>
+      <c r="D122" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E122" s="29">
         <v>234001</v>
       </c>
-      <c r="F122" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G122" s="31" t="s">
+      <c r="F122" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G122" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H122" s="5" t="s">
@@ -6336,30 +6361,30 @@
       <c r="K122" s="5">
         <v>1</v>
       </c>
-      <c r="L122" s="35" t="s">
+      <c r="L122" s="36" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="28">
+      <c r="A123" s="29">
         <v>234002</v>
       </c>
       <c r="B123" s="5">
         <v>234</v>
       </c>
-      <c r="C123" s="29">
-        <v>0</v>
-      </c>
-      <c r="D123" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E123" s="28">
+      <c r="C123" s="30">
+        <v>0</v>
+      </c>
+      <c r="D123" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E123" s="29">
         <v>234002</v>
       </c>
-      <c r="F123" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G123" s="31" t="s">
+      <c r="F123" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G123" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H123" s="5" t="s">
@@ -6374,30 +6399,30 @@
       <c r="K123" s="5">
         <v>2</v>
       </c>
-      <c r="L123" s="35" t="s">
+      <c r="L123" s="36" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="28">
+      <c r="A124" s="29">
         <v>234003</v>
       </c>
       <c r="B124" s="5">
         <v>234</v>
       </c>
-      <c r="C124" s="29">
-        <v>0</v>
-      </c>
-      <c r="D124" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E124" s="28">
+      <c r="C124" s="30">
+        <v>0</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E124" s="29">
         <v>234003</v>
       </c>
-      <c r="F124" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G124" s="31" t="s">
+      <c r="F124" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G124" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H124" s="5" t="s">
@@ -6412,30 +6437,30 @@
       <c r="K124" s="5">
         <v>3</v>
       </c>
-      <c r="L124" s="35" t="s">
+      <c r="L124" s="36" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:12">
-      <c r="A125" s="28">
+      <c r="A125" s="29">
         <v>234004</v>
       </c>
       <c r="B125" s="5">
         <v>234</v>
       </c>
-      <c r="C125" s="29">
-        <v>0</v>
-      </c>
-      <c r="D125" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E125" s="28">
+      <c r="C125" s="30">
+        <v>0</v>
+      </c>
+      <c r="D125" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E125" s="29">
         <v>234004</v>
       </c>
-      <c r="F125" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G125" s="31" t="s">
+      <c r="F125" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G125" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H125" s="5" t="s">
@@ -6450,30 +6475,30 @@
       <c r="K125" s="5">
         <v>4</v>
       </c>
-      <c r="L125" s="35" t="s">
+      <c r="L125" s="36" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="28">
+      <c r="A126" s="29">
         <v>234005</v>
       </c>
       <c r="B126" s="5">
         <v>234</v>
       </c>
-      <c r="C126" s="29">
-        <v>0</v>
-      </c>
-      <c r="D126" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E126" s="28">
+      <c r="C126" s="30">
+        <v>0</v>
+      </c>
+      <c r="D126" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E126" s="29">
         <v>234005</v>
       </c>
-      <c r="F126" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G126" s="31" t="s">
+      <c r="F126" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G126" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H126" s="5" t="s">
@@ -6488,30 +6513,30 @@
       <c r="K126" s="5">
         <v>5</v>
       </c>
-      <c r="L126" s="35" t="s">
+      <c r="L126" s="36" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="A127" s="28">
+      <c r="A127" s="29">
         <v>234006</v>
       </c>
       <c r="B127" s="5">
         <v>234</v>
       </c>
-      <c r="C127" s="29">
-        <v>0</v>
-      </c>
-      <c r="D127" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E127" s="28">
+      <c r="C127" s="30">
+        <v>0</v>
+      </c>
+      <c r="D127" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E127" s="29">
         <v>234006</v>
       </c>
-      <c r="F127" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G127" s="31" t="s">
+      <c r="F127" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G127" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H127" s="5" t="s">
@@ -6526,30 +6551,30 @@
       <c r="K127" s="5">
         <v>6</v>
       </c>
-      <c r="L127" s="35" t="s">
+      <c r="L127" s="36" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="28">
+      <c r="A128" s="29">
         <v>234007</v>
       </c>
       <c r="B128" s="5">
         <v>234</v>
       </c>
-      <c r="C128" s="29">
-        <v>0</v>
-      </c>
-      <c r="D128" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E128" s="28">
+      <c r="C128" s="30">
+        <v>0</v>
+      </c>
+      <c r="D128" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E128" s="29">
         <v>234007</v>
       </c>
-      <c r="F128" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G128" s="31" t="s">
+      <c r="F128" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G128" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H128" s="5" t="s">
@@ -6564,30 +6589,30 @@
       <c r="K128" s="5">
         <v>7</v>
       </c>
-      <c r="L128" s="35" t="s">
+      <c r="L128" s="36" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:12">
-      <c r="A129" s="28">
+      <c r="A129" s="29">
         <v>235001</v>
       </c>
       <c r="B129" s="5">
         <v>235</v>
       </c>
-      <c r="C129" s="29">
-        <v>0</v>
-      </c>
-      <c r="D129" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E129" s="28">
+      <c r="C129" s="30">
+        <v>0</v>
+      </c>
+      <c r="D129" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E129" s="29">
         <v>235001</v>
       </c>
-      <c r="F129" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G129" s="31" t="s">
+      <c r="F129" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G129" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H129" s="5" t="s">
@@ -6602,30 +6627,30 @@
       <c r="K129" s="5">
         <v>1</v>
       </c>
-      <c r="L129" s="35" t="s">
+      <c r="L129" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="28">
+      <c r="A130" s="29">
         <v>235002</v>
       </c>
       <c r="B130" s="5">
         <v>235</v>
       </c>
-      <c r="C130" s="29">
-        <v>0</v>
-      </c>
-      <c r="D130" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E130" s="28">
+      <c r="C130" s="30">
+        <v>0</v>
+      </c>
+      <c r="D130" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E130" s="29">
         <v>235002</v>
       </c>
-      <c r="F130" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G130" s="31" t="s">
+      <c r="F130" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G130" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H130" s="5" t="s">
@@ -6640,30 +6665,30 @@
       <c r="K130" s="5">
         <v>2</v>
       </c>
-      <c r="L130" s="35" t="s">
+      <c r="L130" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:12">
-      <c r="A131" s="28">
+      <c r="A131" s="29">
         <v>235003</v>
       </c>
       <c r="B131" s="5">
         <v>235</v>
       </c>
-      <c r="C131" s="29">
-        <v>0</v>
-      </c>
-      <c r="D131" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E131" s="28">
+      <c r="C131" s="30">
+        <v>0</v>
+      </c>
+      <c r="D131" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E131" s="29">
         <v>235003</v>
       </c>
-      <c r="F131" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G131" s="31" t="s">
+      <c r="F131" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G131" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H131" s="5" t="s">
@@ -6678,30 +6703,30 @@
       <c r="K131" s="5">
         <v>3</v>
       </c>
-      <c r="L131" s="35" t="s">
+      <c r="L131" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:12">
-      <c r="A132" s="28">
+      <c r="A132" s="29">
         <v>235004</v>
       </c>
       <c r="B132" s="5">
         <v>235</v>
       </c>
-      <c r="C132" s="29">
-        <v>0</v>
-      </c>
-      <c r="D132" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E132" s="28">
+      <c r="C132" s="30">
+        <v>0</v>
+      </c>
+      <c r="D132" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E132" s="29">
         <v>235004</v>
       </c>
-      <c r="F132" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G132" s="31" t="s">
+      <c r="F132" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G132" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H132" s="5" t="s">
@@ -6716,30 +6741,30 @@
       <c r="K132" s="5">
         <v>4</v>
       </c>
-      <c r="L132" s="35" t="s">
+      <c r="L132" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:12">
-      <c r="A133" s="28">
+      <c r="A133" s="29">
         <v>235005</v>
       </c>
       <c r="B133" s="5">
         <v>235</v>
       </c>
-      <c r="C133" s="29">
-        <v>0</v>
-      </c>
-      <c r="D133" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E133" s="28">
+      <c r="C133" s="30">
+        <v>0</v>
+      </c>
+      <c r="D133" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E133" s="29">
         <v>235005</v>
       </c>
-      <c r="F133" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G133" s="31" t="s">
+      <c r="F133" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G133" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H133" s="5" t="s">
@@ -6754,30 +6779,30 @@
       <c r="K133" s="5">
         <v>5</v>
       </c>
-      <c r="L133" s="35" t="s">
+      <c r="L133" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:12">
-      <c r="A134" s="28">
+      <c r="A134" s="29">
         <v>235006</v>
       </c>
       <c r="B134" s="5">
         <v>235</v>
       </c>
-      <c r="C134" s="29">
-        <v>0</v>
-      </c>
-      <c r="D134" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E134" s="28">
+      <c r="C134" s="30">
+        <v>0</v>
+      </c>
+      <c r="D134" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E134" s="29">
         <v>235006</v>
       </c>
-      <c r="F134" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G134" s="31" t="s">
+      <c r="F134" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G134" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H134" s="5" t="s">
@@ -6792,30 +6817,30 @@
       <c r="K134" s="5">
         <v>6</v>
       </c>
-      <c r="L134" s="35" t="s">
+      <c r="L134" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:12">
-      <c r="A135" s="28">
+      <c r="A135" s="29">
         <v>235007</v>
       </c>
       <c r="B135" s="5">
         <v>235</v>
       </c>
-      <c r="C135" s="29">
-        <v>0</v>
-      </c>
-      <c r="D135" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E135" s="28">
+      <c r="C135" s="30">
+        <v>0</v>
+      </c>
+      <c r="D135" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E135" s="29">
         <v>235007</v>
       </c>
-      <c r="F135" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G135" s="31" t="s">
+      <c r="F135" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G135" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H135" s="5" t="s">
@@ -6830,30 +6855,30 @@
       <c r="K135" s="5">
         <v>7</v>
       </c>
-      <c r="L135" s="35" t="s">
+      <c r="L135" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:12">
-      <c r="A136" s="28">
+      <c r="A136" s="29">
         <v>236001</v>
       </c>
       <c r="B136" s="5">
         <v>236</v>
       </c>
-      <c r="C136" s="29">
-        <v>0</v>
-      </c>
-      <c r="D136" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E136" s="28">
+      <c r="C136" s="30">
+        <v>0</v>
+      </c>
+      <c r="D136" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E136" s="29">
         <v>236001</v>
       </c>
-      <c r="F136" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G136" s="31" t="s">
+      <c r="F136" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G136" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H136" s="5" t="s">
@@ -6868,30 +6893,30 @@
       <c r="K136" s="5">
         <v>1</v>
       </c>
-      <c r="L136" s="35" t="s">
+      <c r="L136" s="36" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:12">
-      <c r="A137" s="28">
+      <c r="A137" s="29">
         <v>236002</v>
       </c>
       <c r="B137" s="5">
         <v>236</v>
       </c>
-      <c r="C137" s="29">
-        <v>0</v>
-      </c>
-      <c r="D137" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E137" s="28">
+      <c r="C137" s="30">
+        <v>0</v>
+      </c>
+      <c r="D137" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E137" s="29">
         <v>236002</v>
       </c>
-      <c r="F137" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G137" s="31" t="s">
+      <c r="F137" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G137" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H137" s="5" t="s">
@@ -6906,30 +6931,30 @@
       <c r="K137" s="5">
         <v>2</v>
       </c>
-      <c r="L137" s="35" t="s">
+      <c r="L137" s="36" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:12">
-      <c r="A138" s="28">
+      <c r="A138" s="29">
         <v>236003</v>
       </c>
       <c r="B138" s="5">
         <v>236</v>
       </c>
-      <c r="C138" s="29">
-        <v>0</v>
-      </c>
-      <c r="D138" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E138" s="28">
+      <c r="C138" s="30">
+        <v>0</v>
+      </c>
+      <c r="D138" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E138" s="29">
         <v>236003</v>
       </c>
-      <c r="F138" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G138" s="31" t="s">
+      <c r="F138" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G138" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H138" s="5" t="s">
@@ -6944,30 +6969,30 @@
       <c r="K138" s="5">
         <v>3</v>
       </c>
-      <c r="L138" s="35" t="s">
+      <c r="L138" s="36" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:12">
-      <c r="A139" s="28">
+      <c r="A139" s="29">
         <v>236004</v>
       </c>
       <c r="B139" s="5">
         <v>236</v>
       </c>
-      <c r="C139" s="29">
-        <v>0</v>
-      </c>
-      <c r="D139" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E139" s="28">
+      <c r="C139" s="30">
+        <v>0</v>
+      </c>
+      <c r="D139" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E139" s="29">
         <v>236004</v>
       </c>
-      <c r="F139" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G139" s="31" t="s">
+      <c r="F139" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G139" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H139" s="5" t="s">
@@ -6982,30 +7007,30 @@
       <c r="K139" s="5">
         <v>4</v>
       </c>
-      <c r="L139" s="35" t="s">
+      <c r="L139" s="36" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:12">
-      <c r="A140" s="28">
+      <c r="A140" s="29">
         <v>236005</v>
       </c>
       <c r="B140" s="5">
         <v>236</v>
       </c>
-      <c r="C140" s="29">
-        <v>0</v>
-      </c>
-      <c r="D140" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E140" s="28">
+      <c r="C140" s="30">
+        <v>0</v>
+      </c>
+      <c r="D140" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E140" s="29">
         <v>236005</v>
       </c>
-      <c r="F140" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G140" s="31" t="s">
+      <c r="F140" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G140" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H140" s="5" t="s">
@@ -7020,30 +7045,30 @@
       <c r="K140" s="5">
         <v>5</v>
       </c>
-      <c r="L140" s="35" t="s">
+      <c r="L140" s="36" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="141" spans="1:12">
-      <c r="A141" s="28">
+      <c r="A141" s="29">
         <v>236006</v>
       </c>
       <c r="B141" s="5">
         <v>236</v>
       </c>
-      <c r="C141" s="29">
-        <v>0</v>
-      </c>
-      <c r="D141" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E141" s="28">
+      <c r="C141" s="30">
+        <v>0</v>
+      </c>
+      <c r="D141" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E141" s="29">
         <v>236006</v>
       </c>
-      <c r="F141" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G141" s="31" t="s">
+      <c r="F141" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G141" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H141" s="5" t="s">
@@ -7058,30 +7083,30 @@
       <c r="K141" s="5">
         <v>6</v>
       </c>
-      <c r="L141" s="35" t="s">
+      <c r="L141" s="36" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="28">
+      <c r="A142" s="29">
         <v>236007</v>
       </c>
       <c r="B142" s="5">
         <v>236</v>
       </c>
-      <c r="C142" s="29">
-        <v>0</v>
-      </c>
-      <c r="D142" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E142" s="28">
+      <c r="C142" s="30">
+        <v>0</v>
+      </c>
+      <c r="D142" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E142" s="29">
         <v>236007</v>
       </c>
-      <c r="F142" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G142" s="31" t="s">
+      <c r="F142" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G142" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H142" s="5" t="s">
@@ -7096,30 +7121,30 @@
       <c r="K142" s="5">
         <v>7</v>
       </c>
-      <c r="L142" s="35" t="s">
+      <c r="L142" s="36" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:12">
-      <c r="A143" s="28">
+      <c r="A143" s="29">
         <v>237001</v>
       </c>
       <c r="B143" s="5">
         <v>237</v>
       </c>
-      <c r="C143" s="29">
-        <v>0</v>
-      </c>
-      <c r="D143" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E143" s="28">
+      <c r="C143" s="30">
+        <v>0</v>
+      </c>
+      <c r="D143" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E143" s="29">
         <v>237001</v>
       </c>
-      <c r="F143" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G143" s="31" t="s">
+      <c r="F143" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G143" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H143" s="5" t="s">
@@ -7134,30 +7159,30 @@
       <c r="K143" s="5">
         <v>1</v>
       </c>
-      <c r="L143" s="35" t="s">
+      <c r="L143" s="36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:12">
-      <c r="A144" s="28">
+      <c r="A144" s="29">
         <v>237002</v>
       </c>
       <c r="B144" s="5">
         <v>237</v>
       </c>
-      <c r="C144" s="29">
-        <v>0</v>
-      </c>
-      <c r="D144" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E144" s="28">
+      <c r="C144" s="30">
+        <v>0</v>
+      </c>
+      <c r="D144" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E144" s="29">
         <v>237002</v>
       </c>
-      <c r="F144" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G144" s="31" t="s">
+      <c r="F144" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G144" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H144" s="5" t="s">
@@ -7172,30 +7197,30 @@
       <c r="K144" s="5">
         <v>2</v>
       </c>
-      <c r="L144" s="35" t="s">
+      <c r="L144" s="36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:12">
-      <c r="A145" s="28">
+      <c r="A145" s="29">
         <v>237003</v>
       </c>
       <c r="B145" s="5">
         <v>237</v>
       </c>
-      <c r="C145" s="29">
-        <v>0</v>
-      </c>
-      <c r="D145" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E145" s="28">
+      <c r="C145" s="30">
+        <v>0</v>
+      </c>
+      <c r="D145" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E145" s="29">
         <v>237003</v>
       </c>
-      <c r="F145" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G145" s="31" t="s">
+      <c r="F145" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G145" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H145" s="5" t="s">
@@ -7210,30 +7235,30 @@
       <c r="K145" s="5">
         <v>3</v>
       </c>
-      <c r="L145" s="35" t="s">
+      <c r="L145" s="36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:12">
-      <c r="A146" s="28">
+      <c r="A146" s="29">
         <v>237004</v>
       </c>
       <c r="B146" s="5">
         <v>237</v>
       </c>
-      <c r="C146" s="29">
-        <v>0</v>
-      </c>
-      <c r="D146" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E146" s="28">
+      <c r="C146" s="30">
+        <v>0</v>
+      </c>
+      <c r="D146" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E146" s="29">
         <v>237004</v>
       </c>
-      <c r="F146" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G146" s="31" t="s">
+      <c r="F146" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G146" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H146" s="5" t="s">
@@ -7248,30 +7273,30 @@
       <c r="K146" s="5">
         <v>4</v>
       </c>
-      <c r="L146" s="35" t="s">
+      <c r="L146" s="36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:12">
-      <c r="A147" s="28">
+      <c r="A147" s="29">
         <v>237005</v>
       </c>
       <c r="B147" s="5">
         <v>237</v>
       </c>
-      <c r="C147" s="29">
-        <v>0</v>
-      </c>
-      <c r="D147" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E147" s="28">
+      <c r="C147" s="30">
+        <v>0</v>
+      </c>
+      <c r="D147" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E147" s="29">
         <v>237005</v>
       </c>
-      <c r="F147" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G147" s="31" t="s">
+      <c r="F147" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G147" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H147" s="5" t="s">
@@ -7286,30 +7311,30 @@
       <c r="K147" s="5">
         <v>5</v>
       </c>
-      <c r="L147" s="35" t="s">
+      <c r="L147" s="36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="148" spans="1:12">
-      <c r="A148" s="28">
+      <c r="A148" s="29">
         <v>237006</v>
       </c>
       <c r="B148" s="5">
         <v>237</v>
       </c>
-      <c r="C148" s="29">
-        <v>0</v>
-      </c>
-      <c r="D148" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E148" s="28">
+      <c r="C148" s="30">
+        <v>0</v>
+      </c>
+      <c r="D148" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E148" s="29">
         <v>237006</v>
       </c>
-      <c r="F148" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G148" s="31" t="s">
+      <c r="F148" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G148" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H148" s="5" t="s">
@@ -7324,30 +7349,30 @@
       <c r="K148" s="5">
         <v>6</v>
       </c>
-      <c r="L148" s="35" t="s">
+      <c r="L148" s="36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:12">
-      <c r="A149" s="28">
+      <c r="A149" s="29">
         <v>237007</v>
       </c>
       <c r="B149" s="5">
         <v>237</v>
       </c>
-      <c r="C149" s="29">
-        <v>0</v>
-      </c>
-      <c r="D149" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E149" s="28">
+      <c r="C149" s="30">
+        <v>0</v>
+      </c>
+      <c r="D149" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E149" s="29">
         <v>237007</v>
       </c>
-      <c r="F149" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G149" s="31" t="s">
+      <c r="F149" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G149" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H149" s="5" t="s">
@@ -7362,30 +7387,30 @@
       <c r="K149" s="5">
         <v>7</v>
       </c>
-      <c r="L149" s="35" t="s">
+      <c r="L149" s="36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="150" spans="1:12">
-      <c r="A150" s="28">
+      <c r="A150" s="29">
         <v>238001</v>
       </c>
       <c r="B150" s="5">
         <v>238</v>
       </c>
-      <c r="C150" s="29">
-        <v>0</v>
-      </c>
-      <c r="D150" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E150" s="28">
+      <c r="C150" s="30">
+        <v>0</v>
+      </c>
+      <c r="D150" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E150" s="29">
         <v>238001</v>
       </c>
-      <c r="F150" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G150" s="31" t="s">
+      <c r="F150" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G150" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H150" s="5" t="s">
@@ -7400,30 +7425,30 @@
       <c r="K150" s="5">
         <v>1</v>
       </c>
-      <c r="L150" s="35" t="s">
+      <c r="L150" s="36" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="28">
+      <c r="A151" s="29">
         <v>238002</v>
       </c>
       <c r="B151" s="5">
         <v>238</v>
       </c>
-      <c r="C151" s="29">
-        <v>0</v>
-      </c>
-      <c r="D151" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E151" s="28">
+      <c r="C151" s="30">
+        <v>0</v>
+      </c>
+      <c r="D151" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E151" s="29">
         <v>238002</v>
       </c>
-      <c r="F151" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G151" s="31" t="s">
+      <c r="F151" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G151" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H151" s="5" t="s">
@@ -7438,30 +7463,30 @@
       <c r="K151" s="5">
         <v>2</v>
       </c>
-      <c r="L151" s="35" t="s">
+      <c r="L151" s="36" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="152" spans="1:12">
-      <c r="A152" s="28">
+      <c r="A152" s="29">
         <v>238003</v>
       </c>
       <c r="B152" s="5">
         <v>238</v>
       </c>
-      <c r="C152" s="29">
-        <v>0</v>
-      </c>
-      <c r="D152" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E152" s="28">
+      <c r="C152" s="30">
+        <v>0</v>
+      </c>
+      <c r="D152" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E152" s="29">
         <v>238003</v>
       </c>
-      <c r="F152" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G152" s="31" t="s">
+      <c r="F152" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G152" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H152" s="5" t="s">
@@ -7476,30 +7501,30 @@
       <c r="K152" s="5">
         <v>3</v>
       </c>
-      <c r="L152" s="35" t="s">
+      <c r="L152" s="36" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:12">
-      <c r="A153" s="28">
+      <c r="A153" s="29">
         <v>238004</v>
       </c>
       <c r="B153" s="5">
         <v>238</v>
       </c>
-      <c r="C153" s="29">
-        <v>0</v>
-      </c>
-      <c r="D153" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E153" s="28">
+      <c r="C153" s="30">
+        <v>0</v>
+      </c>
+      <c r="D153" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E153" s="29">
         <v>238004</v>
       </c>
-      <c r="F153" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G153" s="31" t="s">
+      <c r="F153" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G153" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H153" s="5" t="s">
@@ -7514,30 +7539,30 @@
       <c r="K153" s="5">
         <v>4</v>
       </c>
-      <c r="L153" s="35" t="s">
+      <c r="L153" s="36" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="28">
+      <c r="A154" s="29">
         <v>238005</v>
       </c>
       <c r="B154" s="5">
         <v>238</v>
       </c>
-      <c r="C154" s="29">
-        <v>0</v>
-      </c>
-      <c r="D154" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E154" s="28">
+      <c r="C154" s="30">
+        <v>0</v>
+      </c>
+      <c r="D154" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E154" s="29">
         <v>238005</v>
       </c>
-      <c r="F154" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G154" s="31" t="s">
+      <c r="F154" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G154" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H154" s="5" t="s">
@@ -7552,30 +7577,30 @@
       <c r="K154" s="5">
         <v>5</v>
       </c>
-      <c r="L154" s="35" t="s">
+      <c r="L154" s="36" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="28">
+      <c r="A155" s="29">
         <v>238006</v>
       </c>
       <c r="B155" s="5">
         <v>238</v>
       </c>
-      <c r="C155" s="29">
-        <v>0</v>
-      </c>
-      <c r="D155" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E155" s="28">
+      <c r="C155" s="30">
+        <v>0</v>
+      </c>
+      <c r="D155" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E155" s="29">
         <v>238006</v>
       </c>
-      <c r="F155" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G155" s="31" t="s">
+      <c r="F155" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G155" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H155" s="5" t="s">
@@ -7590,30 +7615,30 @@
       <c r="K155" s="5">
         <v>6</v>
       </c>
-      <c r="L155" s="35" t="s">
+      <c r="L155" s="36" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="28">
+      <c r="A156" s="29">
         <v>238007</v>
       </c>
       <c r="B156" s="5">
         <v>238</v>
       </c>
-      <c r="C156" s="29">
-        <v>0</v>
-      </c>
-      <c r="D156" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E156" s="28">
+      <c r="C156" s="30">
+        <v>0</v>
+      </c>
+      <c r="D156" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E156" s="29">
         <v>238007</v>
       </c>
-      <c r="F156" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G156" s="31" t="s">
+      <c r="F156" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G156" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H156" s="5" t="s">
@@ -7628,30 +7653,30 @@
       <c r="K156" s="5">
         <v>7</v>
       </c>
-      <c r="L156" s="35" t="s">
+      <c r="L156" s="36" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="28">
+      <c r="A157" s="29">
         <v>239001</v>
       </c>
       <c r="B157" s="5">
         <v>239</v>
       </c>
-      <c r="C157" s="29">
-        <v>0</v>
-      </c>
-      <c r="D157" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E157" s="28">
+      <c r="C157" s="30">
+        <v>0</v>
+      </c>
+      <c r="D157" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E157" s="29">
         <v>239001</v>
       </c>
-      <c r="F157" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G157" s="31" t="s">
+      <c r="F157" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G157" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H157" s="5" t="s">
@@ -7666,30 +7691,30 @@
       <c r="K157" s="5">
         <v>1</v>
       </c>
-      <c r="L157" s="35" t="s">
+      <c r="L157" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="28">
+      <c r="A158" s="29">
         <v>239002</v>
       </c>
       <c r="B158" s="5">
         <v>239</v>
       </c>
-      <c r="C158" s="29">
-        <v>0</v>
-      </c>
-      <c r="D158" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E158" s="28">
+      <c r="C158" s="30">
+        <v>0</v>
+      </c>
+      <c r="D158" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E158" s="29">
         <v>239002</v>
       </c>
-      <c r="F158" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G158" s="31" t="s">
+      <c r="F158" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G158" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H158" s="5" t="s">
@@ -7704,30 +7729,30 @@
       <c r="K158" s="5">
         <v>2</v>
       </c>
-      <c r="L158" s="35" t="s">
+      <c r="L158" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="28">
+      <c r="A159" s="29">
         <v>239003</v>
       </c>
       <c r="B159" s="5">
         <v>239</v>
       </c>
-      <c r="C159" s="29">
-        <v>0</v>
-      </c>
-      <c r="D159" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E159" s="28">
+      <c r="C159" s="30">
+        <v>0</v>
+      </c>
+      <c r="D159" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E159" s="29">
         <v>239003</v>
       </c>
-      <c r="F159" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G159" s="31" t="s">
+      <c r="F159" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G159" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H159" s="5" t="s">
@@ -7742,30 +7767,30 @@
       <c r="K159" s="5">
         <v>3</v>
       </c>
-      <c r="L159" s="35" t="s">
+      <c r="L159" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="28">
+      <c r="A160" s="29">
         <v>239004</v>
       </c>
       <c r="B160" s="5">
         <v>239</v>
       </c>
-      <c r="C160" s="29">
-        <v>0</v>
-      </c>
-      <c r="D160" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E160" s="28">
+      <c r="C160" s="30">
+        <v>0</v>
+      </c>
+      <c r="D160" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E160" s="29">
         <v>239004</v>
       </c>
-      <c r="F160" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G160" s="31" t="s">
+      <c r="F160" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G160" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H160" s="5" t="s">
@@ -7780,30 +7805,30 @@
       <c r="K160" s="5">
         <v>4</v>
       </c>
-      <c r="L160" s="35" t="s">
+      <c r="L160" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="28">
+      <c r="A161" s="29">
         <v>239005</v>
       </c>
       <c r="B161" s="5">
         <v>239</v>
       </c>
-      <c r="C161" s="29">
-        <v>0</v>
-      </c>
-      <c r="D161" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E161" s="28">
+      <c r="C161" s="30">
+        <v>0</v>
+      </c>
+      <c r="D161" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E161" s="29">
         <v>239005</v>
       </c>
-      <c r="F161" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G161" s="31" t="s">
+      <c r="F161" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G161" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H161" s="5" t="s">
@@ -7818,30 +7843,30 @@
       <c r="K161" s="5">
         <v>5</v>
       </c>
-      <c r="L161" s="35" t="s">
+      <c r="L161" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="28">
+      <c r="A162" s="29">
         <v>239006</v>
       </c>
       <c r="B162" s="5">
         <v>239</v>
       </c>
-      <c r="C162" s="29">
-        <v>0</v>
-      </c>
-      <c r="D162" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E162" s="28">
+      <c r="C162" s="30">
+        <v>0</v>
+      </c>
+      <c r="D162" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E162" s="29">
         <v>239006</v>
       </c>
-      <c r="F162" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G162" s="31" t="s">
+      <c r="F162" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G162" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H162" s="5" t="s">
@@ -7856,30 +7881,30 @@
       <c r="K162" s="5">
         <v>6</v>
       </c>
-      <c r="L162" s="35" t="s">
+      <c r="L162" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="28">
+      <c r="A163" s="29">
         <v>239007</v>
       </c>
       <c r="B163" s="5">
         <v>239</v>
       </c>
-      <c r="C163" s="29">
-        <v>0</v>
-      </c>
-      <c r="D163" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E163" s="28">
+      <c r="C163" s="30">
+        <v>0</v>
+      </c>
+      <c r="D163" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E163" s="29">
         <v>239007</v>
       </c>
-      <c r="F163" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G163" s="31" t="s">
+      <c r="F163" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G163" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H163" s="5" t="s">
@@ -7894,486 +7919,486 @@
       <c r="K163" s="5">
         <v>7</v>
       </c>
-      <c r="L163" s="35" t="s">
+      <c r="L163" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="164" s="6" customFormat="1" spans="1:12">
-      <c r="A164" s="36">
+      <c r="A164" s="37">
         <v>240001</v>
       </c>
-      <c r="B164" s="36">
+      <c r="B164" s="37">
         <v>240</v>
       </c>
-      <c r="C164" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="37" t="s">
+      <c r="C164" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E164" s="36">
+      <c r="E164" s="37">
         <v>240001</v>
       </c>
-      <c r="F164" s="37" t="s">
+      <c r="F164" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G164" s="37" t="s">
+      <c r="G164" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H164" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I164" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J164" s="36">
+      <c r="H164" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I164" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J164" s="37">
         <v>5</v>
       </c>
-      <c r="K164" s="36">
+      <c r="K164" s="37">
         <v>1</v>
       </c>
-      <c r="L164" s="44" t="s">
+      <c r="L164" s="49" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="165" s="6" customFormat="1" spans="1:12">
-      <c r="A165" s="36">
+      <c r="A165" s="37">
         <v>240002</v>
       </c>
-      <c r="B165" s="36">
+      <c r="B165" s="37">
         <v>240</v>
       </c>
-      <c r="C165" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" s="37" t="s">
+      <c r="C165" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E165" s="36">
+      <c r="E165" s="37">
         <v>240002</v>
       </c>
-      <c r="F165" s="37" t="s">
+      <c r="F165" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G165" s="37" t="s">
+      <c r="G165" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H165" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I165" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J165" s="36">
+      <c r="H165" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I165" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J165" s="37">
         <v>5</v>
       </c>
-      <c r="K165" s="36">
+      <c r="K165" s="37">
         <v>5</v>
       </c>
-      <c r="L165" s="44" t="s">
+      <c r="L165" s="49" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="166" s="6" customFormat="1" spans="1:12">
-      <c r="A166" s="36">
+      <c r="A166" s="37">
         <v>241001</v>
       </c>
-      <c r="B166" s="36">
+      <c r="B166" s="37">
         <v>241</v>
       </c>
-      <c r="C166" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="37" t="s">
+      <c r="C166" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E166" s="36">
+      <c r="E166" s="37">
         <v>241001</v>
       </c>
-      <c r="F166" s="37" t="s">
+      <c r="F166" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G166" s="37" t="s">
+      <c r="G166" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H166" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I166" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J166" s="36">
+      <c r="H166" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I166" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J166" s="37">
         <v>5</v>
       </c>
-      <c r="K166" s="36">
+      <c r="K166" s="37">
         <v>3</v>
       </c>
-      <c r="L166" s="44" t="s">
+      <c r="L166" s="49" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="38">
+      <c r="A167" s="39">
         <v>241002</v>
       </c>
-      <c r="B167" s="38">
+      <c r="B167" s="39">
         <v>241</v>
       </c>
-      <c r="C167" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167" s="37" t="s">
+      <c r="C167" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E167" s="38">
+      <c r="E167" s="39">
         <v>241002</v>
       </c>
-      <c r="F167" s="37" t="s">
+      <c r="F167" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G167" s="37" t="s">
+      <c r="G167" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H167" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I167" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J167" s="38">
+      <c r="H167" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I167" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J167" s="39">
         <v>5</v>
       </c>
-      <c r="K167" s="38">
+      <c r="K167" s="39">
         <v>6</v>
       </c>
-      <c r="L167" s="45" t="s">
+      <c r="L167" s="50" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="38">
+      <c r="A168" s="39">
         <v>242001</v>
       </c>
-      <c r="B168" s="38">
+      <c r="B168" s="39">
         <v>242</v>
       </c>
-      <c r="C168" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168" s="39" t="s">
+      <c r="C168" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E168" s="38">
+      <c r="E168" s="39">
         <v>242001</v>
       </c>
-      <c r="F168" s="39" t="s">
+      <c r="F168" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G168" s="39" t="s">
+      <c r="G168" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="H168" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I168" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J168" s="38">
+      <c r="H168" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I168" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J168" s="39">
         <v>30</v>
       </c>
-      <c r="K168" s="38">
+      <c r="K168" s="39">
         <v>1</v>
       </c>
-      <c r="L168" s="45" t="s">
+      <c r="L168" s="50" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="38">
+      <c r="A169" s="39">
         <v>242002</v>
       </c>
-      <c r="B169" s="38">
+      <c r="B169" s="39">
         <v>242</v>
       </c>
-      <c r="C169" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D169" s="39" t="s">
+      <c r="C169" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E169" s="38">
+      <c r="E169" s="39">
         <v>242002</v>
       </c>
-      <c r="F169" s="39" t="s">
+      <c r="F169" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G169" s="39" t="s">
+      <c r="G169" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="H169" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I169" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J169" s="38">
+      <c r="H169" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I169" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J169" s="39">
         <v>30</v>
       </c>
-      <c r="K169" s="38">
+      <c r="K169" s="39">
         <v>2</v>
       </c>
-      <c r="L169" s="45" t="s">
+      <c r="L169" s="50" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="38">
+      <c r="A170" s="39">
         <v>242003</v>
       </c>
-      <c r="B170" s="38">
+      <c r="B170" s="39">
         <v>242</v>
       </c>
-      <c r="C170" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170" s="39" t="s">
+      <c r="C170" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E170" s="38">
+      <c r="E170" s="39">
         <v>242003</v>
       </c>
-      <c r="F170" s="39" t="s">
+      <c r="F170" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G170" s="39" t="s">
+      <c r="G170" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="H170" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I170" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J170" s="38">
+      <c r="H170" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I170" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J170" s="39">
         <v>30</v>
       </c>
-      <c r="K170" s="38">
+      <c r="K170" s="39">
         <v>3</v>
       </c>
-      <c r="L170" s="45" t="s">
+      <c r="L170" s="50" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="38">
+      <c r="A171" s="39">
         <v>242004</v>
       </c>
-      <c r="B171" s="38">
+      <c r="B171" s="39">
         <v>242</v>
       </c>
-      <c r="C171" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171" s="39" t="s">
+      <c r="C171" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E171" s="38">
+      <c r="E171" s="39">
         <v>242004</v>
       </c>
-      <c r="F171" s="39" t="s">
+      <c r="F171" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G171" s="39" t="s">
+      <c r="G171" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="H171" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I171" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J171" s="38">
+      <c r="H171" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I171" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J171" s="39">
         <v>30</v>
       </c>
-      <c r="K171" s="38">
+      <c r="K171" s="39">
         <v>4</v>
       </c>
-      <c r="L171" s="45" t="s">
+      <c r="L171" s="50" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="38">
+      <c r="A172" s="39">
         <v>242005</v>
       </c>
-      <c r="B172" s="38">
+      <c r="B172" s="39">
         <v>242</v>
       </c>
-      <c r="C172" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172" s="39" t="s">
+      <c r="C172" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E172" s="38">
+      <c r="E172" s="39">
         <v>242005</v>
       </c>
-      <c r="F172" s="39" t="s">
+      <c r="F172" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G172" s="39" t="s">
+      <c r="G172" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="H172" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I172" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J172" s="38">
+      <c r="H172" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I172" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J172" s="39">
         <v>30</v>
       </c>
-      <c r="K172" s="38">
+      <c r="K172" s="39">
         <v>5</v>
       </c>
-      <c r="L172" s="45" t="s">
+      <c r="L172" s="50" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="38">
+      <c r="A173" s="39">
         <v>242006</v>
       </c>
-      <c r="B173" s="38">
+      <c r="B173" s="39">
         <v>242</v>
       </c>
-      <c r="C173" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="39" t="s">
+      <c r="C173" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E173" s="38">
+      <c r="E173" s="39">
         <v>242006</v>
       </c>
-      <c r="F173" s="39" t="s">
+      <c r="F173" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G173" s="39" t="s">
+      <c r="G173" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="H173" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I173" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J173" s="38">
+      <c r="H173" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I173" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J173" s="39">
         <v>30</v>
       </c>
-      <c r="K173" s="38">
+      <c r="K173" s="39">
         <v>6</v>
       </c>
-      <c r="L173" s="45" t="s">
+      <c r="L173" s="50" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="38">
+      <c r="A174" s="39">
         <v>242007</v>
       </c>
-      <c r="B174" s="38">
+      <c r="B174" s="39">
         <v>242</v>
       </c>
-      <c r="C174" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" s="39" t="s">
+      <c r="C174" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E174" s="38">
+      <c r="E174" s="39">
         <v>242007</v>
       </c>
-      <c r="F174" s="39" t="s">
+      <c r="F174" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G174" s="39" t="s">
+      <c r="G174" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="H174" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I174" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J174" s="38">
+      <c r="H174" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I174" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J174" s="39">
         <v>30</v>
       </c>
-      <c r="K174" s="38">
+      <c r="K174" s="39">
         <v>7</v>
       </c>
-      <c r="L174" s="45" t="s">
+      <c r="L174" s="50" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="38">
+      <c r="A175" s="39">
         <v>243001</v>
       </c>
-      <c r="B175" s="38">
+      <c r="B175" s="39">
         <v>243</v>
       </c>
-      <c r="C175" s="38">
+      <c r="C175" s="39">
         <v>1101011999</v>
       </c>
-      <c r="D175" s="37" t="s">
+      <c r="D175" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E175" s="38">
+      <c r="E175" s="39">
         <v>243001</v>
       </c>
-      <c r="F175" s="37" t="s">
+      <c r="F175" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G175" s="37" t="s">
+      <c r="G175" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H175" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I175" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J175" s="38">
+      <c r="H175" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I175" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J175" s="39">
         <v>5</v>
       </c>
-      <c r="K175" s="38">
+      <c r="K175" s="39">
         <v>7</v>
       </c>
-      <c r="L175" s="45" t="s">
+      <c r="L175" s="50" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="176" s="7" customFormat="1" spans="1:12">
-      <c r="A176" s="40">
+      <c r="A176" s="41">
         <v>244001</v>
       </c>
-      <c r="B176" s="40">
+      <c r="B176" s="41">
         <v>244</v>
       </c>
-      <c r="C176" s="41">
-        <v>0</v>
-      </c>
-      <c r="D176" s="42" t="s">
+      <c r="C176" s="42">
+        <v>0</v>
+      </c>
+      <c r="D176" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E176" s="40">
+      <c r="E176" s="41">
         <v>244001</v>
       </c>
-      <c r="F176" s="42" t="s">
+      <c r="F176" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="G176" s="43" t="s">
+      <c r="G176" s="44" t="s">
         <v>14</v>
       </c>
       <c r="H176" s="7" t="s">
@@ -8388,30 +8413,30 @@
       <c r="K176" s="7">
         <v>1</v>
       </c>
-      <c r="L176" s="46" t="s">
+      <c r="L176" s="51" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="177" s="7" customFormat="1" spans="1:12">
-      <c r="A177" s="40">
+      <c r="A177" s="41">
         <v>244002</v>
       </c>
-      <c r="B177" s="40">
+      <c r="B177" s="41">
         <v>244</v>
       </c>
-      <c r="C177" s="41">
-        <v>0</v>
-      </c>
-      <c r="D177" s="42" t="s">
+      <c r="C177" s="42">
+        <v>0</v>
+      </c>
+      <c r="D177" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E177" s="40">
+      <c r="E177" s="41">
         <v>244002</v>
       </c>
-      <c r="F177" s="42" t="s">
+      <c r="F177" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="G177" s="43" t="s">
+      <c r="G177" s="44" t="s">
         <v>14</v>
       </c>
       <c r="H177" s="7" t="s">
@@ -8426,30 +8451,30 @@
       <c r="K177" s="7">
         <v>2</v>
       </c>
-      <c r="L177" s="46" t="s">
+      <c r="L177" s="51" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="178" s="7" customFormat="1" spans="1:12">
-      <c r="A178" s="40">
+      <c r="A178" s="41">
         <v>244003</v>
       </c>
-      <c r="B178" s="40">
+      <c r="B178" s="41">
         <v>244</v>
       </c>
-      <c r="C178" s="41">
-        <v>0</v>
-      </c>
-      <c r="D178" s="42" t="s">
+      <c r="C178" s="42">
+        <v>0</v>
+      </c>
+      <c r="D178" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E178" s="40">
+      <c r="E178" s="41">
         <v>244003</v>
       </c>
-      <c r="F178" s="42" t="s">
+      <c r="F178" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="G178" s="43" t="s">
+      <c r="G178" s="44" t="s">
         <v>14</v>
       </c>
       <c r="H178" s="7" t="s">
@@ -8464,30 +8489,30 @@
       <c r="K178" s="7">
         <v>3</v>
       </c>
-      <c r="L178" s="46" t="s">
+      <c r="L178" s="51" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="179" s="7" customFormat="1" spans="1:12">
-      <c r="A179" s="40">
+      <c r="A179" s="41">
         <v>244004</v>
       </c>
-      <c r="B179" s="40">
+      <c r="B179" s="41">
         <v>244</v>
       </c>
-      <c r="C179" s="41">
-        <v>0</v>
-      </c>
-      <c r="D179" s="42" t="s">
+      <c r="C179" s="42">
+        <v>0</v>
+      </c>
+      <c r="D179" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E179" s="40">
+      <c r="E179" s="41">
         <v>244004</v>
       </c>
-      <c r="F179" s="42" t="s">
+      <c r="F179" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="G179" s="43" t="s">
+      <c r="G179" s="44" t="s">
         <v>14</v>
       </c>
       <c r="H179" s="7" t="s">
@@ -8502,30 +8527,30 @@
       <c r="K179" s="7">
         <v>4</v>
       </c>
-      <c r="L179" s="46" t="s">
+      <c r="L179" s="51" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="180" s="7" customFormat="1" spans="1:12">
-      <c r="A180" s="40">
+      <c r="A180" s="41">
         <v>244005</v>
       </c>
-      <c r="B180" s="40">
+      <c r="B180" s="41">
         <v>244</v>
       </c>
-      <c r="C180" s="41">
-        <v>0</v>
-      </c>
-      <c r="D180" s="42" t="s">
+      <c r="C180" s="42">
+        <v>0</v>
+      </c>
+      <c r="D180" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E180" s="40">
+      <c r="E180" s="41">
         <v>244005</v>
       </c>
-      <c r="F180" s="42" t="s">
+      <c r="F180" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="G180" s="43" t="s">
+      <c r="G180" s="44" t="s">
         <v>14</v>
       </c>
       <c r="H180" s="7" t="s">
@@ -8540,30 +8565,30 @@
       <c r="K180" s="7">
         <v>5</v>
       </c>
-      <c r="L180" s="46" t="s">
+      <c r="L180" s="51" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="181" s="7" customFormat="1" spans="1:12">
-      <c r="A181" s="40">
+      <c r="A181" s="41">
         <v>244006</v>
       </c>
-      <c r="B181" s="40">
+      <c r="B181" s="41">
         <v>244</v>
       </c>
-      <c r="C181" s="41">
-        <v>0</v>
-      </c>
-      <c r="D181" s="42" t="s">
+      <c r="C181" s="42">
+        <v>0</v>
+      </c>
+      <c r="D181" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E181" s="40">
+      <c r="E181" s="41">
         <v>244006</v>
       </c>
-      <c r="F181" s="42" t="s">
+      <c r="F181" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="G181" s="43" t="s">
+      <c r="G181" s="44" t="s">
         <v>14</v>
       </c>
       <c r="H181" s="7" t="s">
@@ -8578,30 +8603,30 @@
       <c r="K181" s="7">
         <v>6</v>
       </c>
-      <c r="L181" s="46" t="s">
+      <c r="L181" s="51" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="182" s="7" customFormat="1" spans="1:12">
-      <c r="A182" s="40">
+      <c r="A182" s="41">
         <v>244007</v>
       </c>
-      <c r="B182" s="40">
+      <c r="B182" s="41">
         <v>244</v>
       </c>
-      <c r="C182" s="41">
-        <v>0</v>
-      </c>
-      <c r="D182" s="42" t="s">
+      <c r="C182" s="42">
+        <v>0</v>
+      </c>
+      <c r="D182" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E182" s="40">
+      <c r="E182" s="41">
         <v>244007</v>
       </c>
-      <c r="F182" s="42" t="s">
+      <c r="F182" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="G182" s="43" t="s">
+      <c r="G182" s="44" t="s">
         <v>14</v>
       </c>
       <c r="H182" s="7" t="s">
@@ -8616,546 +8641,810 @@
       <c r="K182" s="7">
         <v>7</v>
       </c>
-      <c r="L182" s="46" t="s">
+      <c r="L182" s="51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="183" s="7" customFormat="1" spans="1:12">
-      <c r="A183" s="40">
+    <row r="183" s="8" customFormat="1" spans="1:12">
+      <c r="A183" s="45">
+        <v>244008</v>
+      </c>
+      <c r="B183" s="45">
+        <v>244</v>
+      </c>
+      <c r="C183" s="46">
+        <v>0</v>
+      </c>
+      <c r="D183" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E183" s="45">
+        <v>244008</v>
+      </c>
+      <c r="F183" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="G183" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H183" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I183" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J183" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K183" s="8">
+        <v>1</v>
+      </c>
+      <c r="L183" s="52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="184" s="8" customFormat="1" spans="1:12">
+      <c r="A184" s="45">
+        <v>244009</v>
+      </c>
+      <c r="B184" s="45">
+        <v>244</v>
+      </c>
+      <c r="C184" s="46">
+        <v>0</v>
+      </c>
+      <c r="D184" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E184" s="45">
+        <v>244009</v>
+      </c>
+      <c r="F184" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="G184" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H184" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I184" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J184" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K184" s="8">
+        <v>2</v>
+      </c>
+      <c r="L184" s="52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="185" s="8" customFormat="1" spans="1:12">
+      <c r="A185" s="45">
+        <v>244010</v>
+      </c>
+      <c r="B185" s="45">
+        <v>244</v>
+      </c>
+      <c r="C185" s="46">
+        <v>0</v>
+      </c>
+      <c r="D185" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E185" s="45">
+        <v>244010</v>
+      </c>
+      <c r="F185" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="G185" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H185" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I185" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J185" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K185" s="8">
+        <v>3</v>
+      </c>
+      <c r="L185" s="52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="186" s="8" customFormat="1" spans="1:12">
+      <c r="A186" s="45">
+        <v>244011</v>
+      </c>
+      <c r="B186" s="45">
+        <v>244</v>
+      </c>
+      <c r="C186" s="46">
+        <v>0</v>
+      </c>
+      <c r="D186" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E186" s="45">
+        <v>244011</v>
+      </c>
+      <c r="F186" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="G186" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H186" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I186" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J186" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K186" s="8">
+        <v>4</v>
+      </c>
+      <c r="L186" s="52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="187" s="8" customFormat="1" spans="1:12">
+      <c r="A187" s="45">
+        <v>244012</v>
+      </c>
+      <c r="B187" s="45">
+        <v>244</v>
+      </c>
+      <c r="C187" s="46">
+        <v>0</v>
+      </c>
+      <c r="D187" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E187" s="45">
+        <v>244012</v>
+      </c>
+      <c r="F187" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="G187" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H187" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I187" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J187" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K187" s="8">
+        <v>5</v>
+      </c>
+      <c r="L187" s="52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="188" s="8" customFormat="1" spans="1:12">
+      <c r="A188" s="45">
+        <v>244013</v>
+      </c>
+      <c r="B188" s="45">
+        <v>244</v>
+      </c>
+      <c r="C188" s="46">
+        <v>0</v>
+      </c>
+      <c r="D188" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E188" s="45">
+        <v>244013</v>
+      </c>
+      <c r="F188" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="G188" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H188" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I188" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J188" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K188" s="8">
+        <v>6</v>
+      </c>
+      <c r="L188" s="52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="189" s="8" customFormat="1" spans="1:12">
+      <c r="A189" s="45">
+        <v>244014</v>
+      </c>
+      <c r="B189" s="45">
+        <v>244</v>
+      </c>
+      <c r="C189" s="46">
+        <v>0</v>
+      </c>
+      <c r="D189" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E189" s="45">
+        <v>244014</v>
+      </c>
+      <c r="F189" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="G189" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H189" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I189" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J189" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K189" s="8">
+        <v>7</v>
+      </c>
+      <c r="L189" s="52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="190" s="7" customFormat="1" spans="1:12">
+      <c r="A190" s="41">
         <v>261001</v>
       </c>
-      <c r="B183" s="40">
+      <c r="B190" s="41">
         <v>261</v>
       </c>
-      <c r="C183" s="41">
-        <v>0</v>
-      </c>
-      <c r="D183" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="E183" s="40">
+      <c r="C190" s="42">
+        <v>0</v>
+      </c>
+      <c r="D190" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E190" s="41">
         <v>261001</v>
       </c>
-      <c r="F183" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="G183" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H183" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I183" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J183" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K183" s="7">
-        <v>0</v>
-      </c>
-      <c r="L183" s="46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="184" s="7" customFormat="1" spans="1:12">
-      <c r="A184" s="40">
+      <c r="F190" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G190" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I190" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J190" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K190" s="7">
+        <v>0</v>
+      </c>
+      <c r="L190" s="51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="191" s="7" customFormat="1" spans="1:12">
+      <c r="A191" s="41">
         <v>261002</v>
       </c>
-      <c r="B184" s="40">
+      <c r="B191" s="41">
         <v>261</v>
       </c>
-      <c r="C184" s="41">
-        <v>0</v>
-      </c>
-      <c r="D184" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="E184" s="40">
+      <c r="C191" s="42">
+        <v>0</v>
+      </c>
+      <c r="D191" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="41">
         <v>261002</v>
       </c>
-      <c r="F184" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="G184" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="H184" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I184" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J184" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K184" s="7">
-        <v>0</v>
-      </c>
-      <c r="L184" s="46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12">
-      <c r="A185" s="2">
+      <c r="F191" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="G191" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H191" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I191" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J191" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K191" s="7">
+        <v>0</v>
+      </c>
+      <c r="L191" s="51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192" s="2">
         <v>280001</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B192" s="2">
         <v>280</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E185" s="2">
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E192" s="2">
         <v>280001</v>
       </c>
-      <c r="F185" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G185" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K185" s="2">
+      <c r="F192" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G192" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K192" s="2">
         <v>1</v>
       </c>
-      <c r="L185" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12">
-      <c r="A186" s="2">
+      <c r="L192" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193" s="2">
         <v>280002</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B193" s="2">
         <v>280</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E186" s="2">
+      <c r="C193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E193" s="2">
         <v>280002</v>
       </c>
-      <c r="F186" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G186" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K186" s="2">
+      <c r="F193" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G193" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K193" s="2">
         <v>3</v>
       </c>
-      <c r="L186" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12">
-      <c r="A187" s="2">
+      <c r="L193" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194" s="2">
         <v>281001</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B194" s="2">
         <v>281</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="14" t="s">
+      <c r="C194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E187" s="2">
+      <c r="E194" s="2">
         <v>281001</v>
       </c>
-      <c r="F187" s="14" t="s">
+      <c r="F194" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G187" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H187" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K187" s="2">
+      <c r="G194" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K194" s="2">
         <v>2</v>
       </c>
-      <c r="L187" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12">
-      <c r="A188" s="2">
+      <c r="L194" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195" s="2">
         <v>281002</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B195" s="2">
         <v>281</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="14" t="s">
+      <c r="C195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E188" s="2">
+      <c r="E195" s="2">
         <v>281002</v>
       </c>
-      <c r="F188" s="14" t="s">
+      <c r="F195" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G188" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K188" s="2">
+      <c r="G195" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K195" s="2">
         <v>4</v>
       </c>
-      <c r="L188" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="189" s="5" customFormat="1" spans="1:12">
-      <c r="A189" s="28">
+      <c r="L195" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="196" s="5" customFormat="1" spans="1:12">
+      <c r="A196" s="29">
         <v>282001</v>
       </c>
-      <c r="B189" s="28">
+      <c r="B196" s="29">
         <v>282</v>
       </c>
-      <c r="C189" s="29">
-        <v>0</v>
-      </c>
-      <c r="D189" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E189" s="28">
+      <c r="C196" s="30">
+        <v>0</v>
+      </c>
+      <c r="D196" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E196" s="29">
         <v>282001</v>
       </c>
-      <c r="F189" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="G189" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H189" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I189" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J189" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K189" s="5">
+      <c r="F196" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G196" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I196" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J196" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K196" s="5">
         <v>1</v>
       </c>
-      <c r="L189" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="190" s="5" customFormat="1" spans="1:12">
-      <c r="A190" s="28">
+      <c r="L196" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="197" s="5" customFormat="1" spans="1:12">
+      <c r="A197" s="29">
         <v>282002</v>
       </c>
-      <c r="B190" s="28">
+      <c r="B197" s="29">
         <v>282</v>
       </c>
-      <c r="C190" s="29">
-        <v>0</v>
-      </c>
-      <c r="D190" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E190" s="28">
+      <c r="C197" s="30">
+        <v>0</v>
+      </c>
+      <c r="D197" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E197" s="29">
         <v>282002</v>
       </c>
-      <c r="F190" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G190" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H190" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I190" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J190" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K190" s="5">
+      <c r="F197" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G197" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H197" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I197" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J197" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K197" s="5">
         <v>2</v>
       </c>
-      <c r="L190" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="191" s="5" customFormat="1" spans="1:12">
-      <c r="A191" s="28">
+      <c r="L197" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="198" s="5" customFormat="1" spans="1:12">
+      <c r="A198" s="29">
         <v>282003</v>
       </c>
-      <c r="B191" s="28">
+      <c r="B198" s="29">
         <v>282</v>
       </c>
-      <c r="C191" s="29">
-        <v>0</v>
-      </c>
-      <c r="D191" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E191" s="28">
+      <c r="C198" s="30">
+        <v>0</v>
+      </c>
+      <c r="D198" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E198" s="29">
         <v>282003</v>
       </c>
-      <c r="F191" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G191" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H191" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I191" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J191" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K191" s="5">
+      <c r="F198" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G198" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I198" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J198" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K198" s="5">
         <v>3</v>
       </c>
-      <c r="L191" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="192" s="5" customFormat="1" spans="1:12">
-      <c r="A192" s="28">
+      <c r="L198" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="199" s="5" customFormat="1" spans="1:12">
+      <c r="A199" s="29">
         <v>282004</v>
       </c>
-      <c r="B192" s="28">
+      <c r="B199" s="29">
         <v>282</v>
       </c>
-      <c r="C192" s="29">
-        <v>0</v>
-      </c>
-      <c r="D192" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E192" s="28">
+      <c r="C199" s="30">
+        <v>0</v>
+      </c>
+      <c r="D199" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="29">
         <v>282004</v>
       </c>
-      <c r="F192" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G192" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H192" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I192" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J192" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K192" s="5">
+      <c r="F199" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G199" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H199" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I199" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J199" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K199" s="5">
         <v>4</v>
       </c>
-      <c r="L192" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="193" s="5" customFormat="1" spans="1:12">
-      <c r="A193" s="28">
+      <c r="L199" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="200" s="5" customFormat="1" spans="1:12">
+      <c r="A200" s="29">
         <v>282005</v>
       </c>
-      <c r="B193" s="28">
+      <c r="B200" s="29">
         <v>282</v>
       </c>
-      <c r="C193" s="29">
-        <v>0</v>
-      </c>
-      <c r="D193" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E193" s="28">
+      <c r="C200" s="30">
+        <v>0</v>
+      </c>
+      <c r="D200" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="29">
         <v>282005</v>
       </c>
-      <c r="F193" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G193" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H193" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I193" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J193" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K193" s="5">
+      <c r="F200" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G200" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H200" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I200" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J200" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K200" s="5">
         <v>5</v>
       </c>
-      <c r="L193" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="194" s="5" customFormat="1" spans="1:12">
-      <c r="A194" s="28">
+      <c r="L200" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="201" s="5" customFormat="1" spans="1:12">
+      <c r="A201" s="29">
         <v>282006</v>
       </c>
-      <c r="B194" s="28">
+      <c r="B201" s="29">
         <v>282</v>
       </c>
-      <c r="C194" s="29">
-        <v>0</v>
-      </c>
-      <c r="D194" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E194" s="28">
+      <c r="C201" s="30">
+        <v>0</v>
+      </c>
+      <c r="D201" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201" s="29">
         <v>282006</v>
       </c>
-      <c r="F194" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G194" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H194" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I194" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J194" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K194" s="5">
+      <c r="F201" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G201" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H201" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I201" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J201" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K201" s="5">
         <v>6</v>
       </c>
-      <c r="L194" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="195" s="5" customFormat="1" spans="1:12">
-      <c r="A195" s="28">
+      <c r="L201" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="202" s="5" customFormat="1" spans="1:12">
+      <c r="A202" s="29">
         <v>282007</v>
       </c>
-      <c r="B195" s="28">
+      <c r="B202" s="29">
         <v>282</v>
       </c>
-      <c r="C195" s="29">
-        <v>0</v>
-      </c>
-      <c r="D195" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E195" s="28">
+      <c r="C202" s="30">
+        <v>0</v>
+      </c>
+      <c r="D202" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E202" s="29">
         <v>282007</v>
       </c>
-      <c r="F195" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G195" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="H195" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I195" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J195" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K195" s="5">
+      <c r="F202" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G202" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I202" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J202" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K202" s="5">
         <v>7</v>
       </c>
-      <c r="L195" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12">
-      <c r="A196">
+      <c r="L202" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
+      <c r="A203">
         <v>300000</v>
       </c>
-      <c r="B196">
+      <c r="B203">
         <v>300</v>
       </c>
-      <c r="C196" s="29">
-        <v>0</v>
-      </c>
-      <c r="D196" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E196">
+      <c r="C203" s="30">
+        <v>0</v>
+      </c>
+      <c r="D203" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E203">
         <v>300000</v>
       </c>
-      <c r="F196" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G196" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="H196" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I196" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J196" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K196" s="5">
+      <c r="F203" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G203" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H203" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I203" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J203" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K203" s="5">
         <v>7</v>
       </c>
-      <c r="L196" s="35" t="s">
-        <v>75</v>
+      <c r="L203" s="36" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L196">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:L203"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/Table/Table_xls/d定时活动配置表.xlsx
+++ b/Table/Table_xls/d定时活动配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,11 +27,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 序号唯一，前3位对应活动ID</t>
         </r>
       </text>
@@ -41,11 +40,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 活动ID序号从200开始往后</t>
         </r>
       </text>
@@ -55,11 +53,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 控制活动在特殊服务器生效，没需求就不要填。
 0=所有服务器都生效</t>
         </r>
@@ -70,7 +67,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -88,11 +84,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 开始时间直接复制序号即可</t>
         </r>
       </text>
@@ -102,7 +97,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -119,7 +113,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -137,11 +130,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 1=提醒
 0=不提醒</t>
         </r>
@@ -152,11 +144,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 提前提醒时间，单位为分</t>
         </r>
       </text>
@@ -166,11 +157,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 0=不是周循环活动
 1至7对应星期1到星期日</t>
         </r>
@@ -181,11 +171,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 副本固有的逻辑是活动时间5分钟后弹提示 所以希望提前5分钟就要写提前10分钟</t>
         </r>
       </text>
@@ -195,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="81">
   <si>
     <t>序号</t>
   </si>
@@ -553,11 +542,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -588,14 +577,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,30 +632,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -640,21 +644,6 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -666,11 +655,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -682,31 +677,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,7 +694,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -729,9 +710,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -741,6 +722,19 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="43">
@@ -818,25 +812,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,37 +836,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,7 +866,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,13 +938,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,60 +990,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1008,35 +1002,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,8 +1026,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1070,6 +1040,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,16 +1084,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,148 +1102,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1374,6 +1368,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1699,34 +1698,33 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B164" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2"/>
   <cols>
-    <col min="3" max="3" width="11.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="19.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="13.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="11.8611111111111" customWidth="1"/>
+    <col min="4" max="4" width="19.5740740740741" customWidth="1"/>
+    <col min="5" max="5" width="13.712962962963" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="12.5714285714286" customWidth="1"/>
-    <col min="9" max="9" width="16.4285714285714" customWidth="1"/>
-    <col min="10" max="10" width="13.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="12.5740740740741" customWidth="1"/>
+    <col min="9" max="9" width="16.4259259259259" customWidth="1"/>
+    <col min="10" max="10" width="13.4259259259259" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="15.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="15.4259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="62.25" customHeight="1" spans="1:12">
@@ -9444,7 +9442,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L203"/>
+  <autoFilter ref="A1:L203">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
